--- a/cases/case.xlsx
+++ b/cases/case.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zhuqueautomatiic\cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zhuqueAutomation\cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,10 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E:\zhuqueautomatiic\photos\banma1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>输入课程名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -598,10 +594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E:\zhuqueautomatiic\photos\AI教程#!.ppt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第二章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -722,10 +714,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E:\zhuqueautomatiic\photos\斑马2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//li/div/span/span/i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -795,10 +783,6 @@
   </si>
   <si>
     <t>编辑上传新的课件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueautomatiic\photos\素材.ppt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1135,18 +1119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E:\zhuqueautomatiic\photos\monkey04.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueautomatiic\photos\monkey.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueautomatiic\photos\monkey03.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猴子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1167,18 +1139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E:\zhuqueautomatiic\photos\monkey05.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueautomatiic\photos\monkey06.bmp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueautomatiic\photos\monkey02.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[2]/div/div[2]/div/div</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1187,8 +1147,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E:\zhuqueautomatiic\photos\banma.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>E:\zhuqueAutomation\photos\monkey.png</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey03.png</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey05.png</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey02.png</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey04.png</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey06.bmp</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\banma.jpg</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\banma1.png</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\AI教程#!.ppt</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\斑马2.jpg</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\素材.ppt</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -1572,7 +1561,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1586,7 +1575,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
@@ -1600,7 +1589,7 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -1614,7 +1603,7 @@
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1625,7 +1614,7 @@
         <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1636,7 +1625,7 @@
         <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1658,7 +1647,7 @@
         <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1669,7 +1658,7 @@
         <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1680,7 +1669,7 @@
         <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1691,7 +1680,7 @@
         <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1713,7 +1702,7 @@
         <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1724,7 +1713,7 @@
         <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1735,7 +1724,7 @@
         <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1757,12 +1746,12 @@
         <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1770,10 +1759,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1781,10 +1770,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1792,10 +1781,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1803,10 +1792,10 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1814,10 +1803,10 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C34" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1825,10 +1814,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C35" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1836,10 +1825,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C36" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1847,10 +1836,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1864,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1895,7 +1884,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1922,7 +1911,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1933,13 +1922,13 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1947,16 +1936,16 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2004,13 +1993,13 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2034,7 +2023,7 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2058,18 +2047,18 @@
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C20" t="s">
         <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2093,7 +2082,7 @@
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2114,7 +2103,7 @@
         <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2130,18 +2119,18 @@
         <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D29" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2205,7 +2194,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2221,162 +2210,162 @@
         <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E51" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2384,295 +2373,295 @@
         <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E57" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D58" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C63" t="s">
+        <v>170</v>
+      </c>
+      <c r="E63" t="s">
         <v>172</v>
-      </c>
-      <c r="E63" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D64" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C65" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E65" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D66" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E68" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C69" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E69" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B70" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D70" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B72" t="s">
+        <v>183</v>
+      </c>
+      <c r="E72" t="s">
         <v>186</v>
-      </c>
-      <c r="E72" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C73" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C74" t="s">
-        <v>193</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C75" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E75" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C76" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E76" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C77" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E77" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C78" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E78" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C79" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E79" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B80" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B81" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B82" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>232</v>
+      </c>
+      <c r="E83" t="s">
         <v>236</v>
-      </c>
-      <c r="E83" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E84" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E85" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E86" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2686,8 +2675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2698,7 +2687,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
         <v>59</v>
@@ -2800,7 +2789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -2828,91 +2817,91 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" t="s">
         <v>253</v>
-      </c>
-      <c r="C5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E5" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/cases/case.xlsx
+++ b/cases/case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="287">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1015,18 +1015,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>😄章节1名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>😄章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍章节1介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>😄课时1标题课时1标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>.el-submenu:nth-child(9) &gt; .el-submenu__title &gt; span</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1178,6 +1166,22 @@
   </si>
   <si>
     <t>E:\zhuqueAutomation\photos\素材.ppt</t>
+  </si>
+  <si>
+    <t>课时1标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程介绍图地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节1介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节1名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1529,7 +1533,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1713,7 +1717,7 @@
         <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1724,7 +1728,7 @@
         <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1746,7 +1750,7 @@
         <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1836,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C37" t="s">
         <v>148</v>
@@ -1853,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1911,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1922,13 +1926,13 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1936,16 +1940,16 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2058,7 +2062,7 @@
         <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2124,13 +2128,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2190,11 +2194,11 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>3</v>
+      <c r="A37" t="s">
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2207,10 +2211,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="C39" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2314,7 +2318,7 @@
         <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2341,7 +2345,7 @@
         <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2400,7 +2404,7 @@
         <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2408,7 +2412,7 @@
         <v>164</v>
       </c>
       <c r="C60" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2468,7 +2472,7 @@
         <v>177</v>
       </c>
       <c r="D66" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2476,7 +2480,7 @@
         <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2512,7 +2516,7 @@
         <v>133</v>
       </c>
       <c r="D70" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2550,7 +2554,7 @@
         <v>189</v>
       </c>
       <c r="C74" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2676,7 +2680,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2789,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2822,86 +2826,86 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" t="s">
         <v>248</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>251</v>
-      </c>
-      <c r="E4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s">
         <v>249</v>
       </c>
-      <c r="C5" t="s">
-        <v>252</v>
-      </c>
       <c r="E5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/cases/case.xlsx
+++ b/cases/case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="317">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -690,10 +690,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编辑课程简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除课程，草稿页的第一个课程的名称不为斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -795,6 +791,343 @@
   </si>
   <si>
     <t>//span[contains(.,'修改')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[3]/img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#el-collapse-head-7785 .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑更改章节1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//button[contains(.,'编辑')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#el-collapse-head-6631 .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入第一课时名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击弹出已有课时列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div/div/div/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div/div/div/div[2]/div/div/div/div/div[2]/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑添加第二个场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.courseware-name &gt; .el-icon-delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-delete deleteIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'上传课件')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一课时标题😄😄😄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存到草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-col &gt; .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'保存到草稿')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿页发布按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.popper &gt; div:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[4]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.tabs-item:nth-child(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div[2]/div/div[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.tabs-item:nth-child(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-table_5_column_26 is-center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态页（课程）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态页第一个课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ellipsis_box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程页我的草稿第一个课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的在线课程页第一个课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的在线课程页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的草稿页发布课程，我的在草稿页第一个课程的名称不为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品/课程-我的草稿页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态-全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态-待审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态-已通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态-未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='tab-first']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='tab-third']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='tab-fourth']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='tab-second']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-submenu:nth-child(9) &gt; .el-submenu__title &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'课程管理')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程管理-课程分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程管理-课程审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程管理-上下架管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is-opened .el-menu-item:nth-child(1) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is-active .el-menu-item:nth-child(2) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'课程审核')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'课程分类')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is-active .el-menu-item:nth-child(3) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'上下架管理')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核点击审核第一个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(1) &gt; .el-table_7_column_58 span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//td[10]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//tr[2]/td[10]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核点击审核第二个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核页审核不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-select--small:nth-child(1) &gt; .el-input:nth-child(1) .el-select__caret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[3]/div/div/div/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核页点击弹出审核选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核页审核通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-upload &gt; .el-icon-plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子4🐒齐天大圣归来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作页发布的作品名称和介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大闹天宫后四百多年，齐天大圣成了一个传说，在山妖横行的长安城，孤儿江流儿与行脚僧法明相依为命，小小少年常常神往大闹天宫的孙悟空。有一天，山妖来劫掠童男童女，江流儿救了一个小女孩，惹得山妖追杀，他一路逃跑，跑进了五行山，盲打误撞地解除了孙悟空的封印。悟空自由之后只想回花果山，却无奈腕上封印未解，又欠江流儿人情，勉强地护送他回长安城。一路上八戒和白龙马也因缘际化地现身，但或落魄或魔性大发，英雄不再。妖王为抢女童，布下夜店迷局，却发现悟空法力尽失，轻而易举地抓走了女童。悟空不愿再去救女童，江流儿决定自己去救。日全食之日，在悬空寺，妖王准备将童男童女投入丹炉中，江流儿却冲进了道场，最后一战开始了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div[2]/div/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'从资源库获取')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey.png</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey03.png</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey05.png</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey02.png</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey04.png</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey06.bmp</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\banma.jpg</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\banma1.png</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\AI教程#!.ppt</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\斑马2.jpg</t>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\素材.ppt</t>
+  </si>
+  <si>
+    <t>课时1标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程介绍图地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节1介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节1名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -823,151 +1156,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[2]/div/div/div[3]/img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#el-collapse-head-7785 .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击编辑更改章节1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//button[contains(.,'编辑')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#el-collapse-head-6631 .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入第一课时名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击弹出已有课时列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div/div/div/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div/div/div/div[2]/div/div/div/div/div[2]/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑添加第二个场景文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.courseware-name &gt; .el-icon-delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-icon-delete deleteIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'上传课件')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一课时标题😄😄😄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存到草稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-col &gt; .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'保存到草稿')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草稿页发布按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.popper &gt; div:nth-child(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div[4]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.tabs-item:nth-child(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div[2]/div/div[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.tabs-item:nth-child(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑课程并保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-table_5_column_26 is-center</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态页（课程）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态页第一个课程名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ellipsis_box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的草稿页发布课程，审核状态页第一个课程的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程页我的草稿第一个课程名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的在线课程页第一个课程名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的在线课程页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的草稿页发布课程，我的在草稿页第一个课程的名称不为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品/课程-我的草稿页</t>
+    <t>斑马2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马2简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑课程简介（废弃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑课程并保存，保存的课程名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -975,212 +1180,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审核状态-全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态-待审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态-已通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态-未通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='tab-first']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='tab-third']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='tab-fourth']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='tab-second']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>😄斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介斑马2简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马2斑马2斑马2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-submenu:nth-child(9) &gt; .el-submenu__title &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'课程管理')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程管理-课程分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程管理-课程审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程管理-上下架管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.is-opened .el-menu-item:nth-child(1) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.is-active .el-menu-item:nth-child(2) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'课程审核')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'课程分类')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.is-active .el-menu-item:nth-child(3) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'上下架管理')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核点击审核第一个作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-table__row:nth-child(1) &gt; .el-table_7_column_58 span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//td[10]/div/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//tr[2]/td[10]/div/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核点击审核第二个作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核页审核不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-select--small:nth-child(1) &gt; .el-input:nth-child(1) .el-select__caret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[3]/div/div/div/span/span/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核页点击弹出审核选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核页审核通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-upload &gt; .el-icon-plus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子4🐒齐天大圣归来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作页发布的作品名称和介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大闹天宫后四百多年，齐天大圣成了一个传说，在山妖横行的长安城，孤儿江流儿与行脚僧法明相依为命，小小少年常常神往大闹天宫的孙悟空。有一天，山妖来劫掠童男童女，江流儿救了一个小女孩，惹得山妖追杀，他一路逃跑，跑进了五行山，盲打误撞地解除了孙悟空的封印。悟空自由之后只想回花果山，却无奈腕上封印未解，又欠江流儿人情，勉强地护送他回长安城。一路上八戒和白龙马也因缘际化地现身，但或落魄或魔性大发，英雄不再。妖王为抢女童，布下夜店迷局，却发现悟空法力尽失，轻而易举地抓走了女童。悟空不愿再去救女童，江流儿决定自己去救。日全食之日，在悬空寺，妖王准备将童男童女投入丹炉中，江流儿却冲进了道场，最后一战开始了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网草稿页发布课程，草稿页的第一个课程不为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div[2]/div/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'从资源库获取')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\monkey.png</t>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\monkey03.png</t>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\monkey05.png</t>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\monkey02.png</t>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\monkey04.png</t>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\monkey06.bmp</t>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\banma.jpg</t>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\banma1.png</t>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\AI教程#!.ppt</t>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\斑马2.jpg</t>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\素材.ppt</t>
-  </si>
-  <si>
-    <t>课时1标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程介绍图地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节1介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节1名称</t>
+    <t>斑马3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页发布课程，审核通过后我的在线课程页第一个课程的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页发布课程，审核状态页-已通过页，第一个课程的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的草稿页发布课程，审核状态页-已通过页，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创作页发布课程，在线作品页的课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创作页发布课程，审核状态页-已通过页的课程名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马4</t>
+  </si>
+  <si>
+    <t>斑马4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-编辑页发布-发布按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-col-3 &gt; .el-button--default &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'发布到课程社区')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-创作页页发布-课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-创作页页发布-课程简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-创作页页发布-icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-创作页页发布-介绍图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-编辑页发布-icon地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-编辑页发布-介绍图地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-编辑页发布-课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-编辑页发布-课程简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-编辑页发布-课程分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-创作页页发布-场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-编辑页发布-场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\斑马3.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\斑马3.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马4简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\斑马4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\斑马4.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1530,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1717,7 +1836,7 @@
         <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1728,7 +1847,7 @@
         <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1750,7 +1869,7 @@
         <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1785,7 +1904,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
         <v>148</v>
@@ -1796,10 +1915,10 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="C33" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1807,10 +1926,10 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1818,10 +1937,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1829,10 +1948,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="C36" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1840,10 +1959,43 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>288</v>
+      </c>
+      <c r="C38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -1855,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1915,7 +2067,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1926,13 +2078,13 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F6" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1940,16 +2092,16 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2003,7 +2155,7 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2056,13 +2208,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C20" t="s">
         <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2128,13 +2280,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2198,7 +2350,7 @@
         <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2211,10 +2363,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C39" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2225,7 +2377,7 @@
         <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2233,18 +2385,18 @@
         <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>193</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2307,18 +2459,18 @@
         <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C49" t="s">
         <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2334,10 +2486,10 @@
         <v>138</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2345,7 +2497,7 @@
         <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2388,7 +2540,7 @@
         <v>160</v>
       </c>
       <c r="E57" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2396,7 +2548,7 @@
         <v>163</v>
       </c>
       <c r="D58" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2404,7 +2556,7 @@
         <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2412,260 +2564,353 @@
         <v>164</v>
       </c>
       <c r="C60" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>282</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" t="s">
         <v>168</v>
-      </c>
-      <c r="C62" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" t="s">
+        <v>169</v>
+      </c>
+      <c r="E63" t="s">
         <v>171</v>
-      </c>
-      <c r="C63" t="s">
-        <v>170</v>
-      </c>
-      <c r="E63" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D64" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C65" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" t="s">
         <v>195</v>
-      </c>
-      <c r="E65" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D67" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E68" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C69" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E69" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C70" t="s">
         <v>133</v>
       </c>
       <c r="D70" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" t="s">
         <v>184</v>
-      </c>
-      <c r="C71" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B73" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C74" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75" t="s">
         <v>190</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
         <v>191</v>
-      </c>
-      <c r="E75" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" t="s">
+        <v>208</v>
+      </c>
+      <c r="E76" t="s">
         <v>209</v>
-      </c>
-      <c r="C76" t="s">
-        <v>210</v>
-      </c>
-      <c r="E76" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" t="s">
+        <v>212</v>
+      </c>
+      <c r="E77" t="s">
         <v>213</v>
-      </c>
-      <c r="C77" t="s">
-        <v>214</v>
-      </c>
-      <c r="E77" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C78" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E78" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C79" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E79" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B80" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B81" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B82" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E83" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E84" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E85" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E86" t="s">
-        <v>238</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>295</v>
+      </c>
+      <c r="C87" t="s">
+        <v>296</v>
+      </c>
+      <c r="E87" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>304</v>
+      </c>
+      <c r="D88" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>305</v>
+      </c>
+      <c r="D89" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>302</v>
+      </c>
+      <c r="C91" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>303</v>
+      </c>
+      <c r="C92" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>308</v>
+      </c>
+      <c r="D93" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>298</v>
+      </c>
+      <c r="D94" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>299</v>
+      </c>
+      <c r="D95" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>300</v>
+      </c>
+      <c r="C96" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>301</v>
+      </c>
+      <c r="C97" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -2826,86 +3071,86 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E8" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E9" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/cases/case.xlsx
+++ b/cases/case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="322">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,18 +77,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击选择作品图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>.el-upload &gt; .el-icon-plus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击输入作品介绍图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>.el-textarea__inner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,11 +243,626 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>复制作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.tabs-item:nth-child(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#shequ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全息展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大镜搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精选作品排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新发布排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.list &gt; div:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.list &gt; div:nth-child(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.list &gt; div:nth-child(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作作品页发布作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页修改作品名称并发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编辑页发布作品后，作品社区的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置按钮发布作品，在线作品页的作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置按钮发布作品，作品从草稿箱消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置按钮发布作品，审核状态页的第一个作品的审核状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置按钮发布作品，审核状态页的第一个作品名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置按钮发布作品，作品社区的作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编辑页发布作品后，审核状态页的第一个作品状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编辑页发布作品，在线作品页的作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编辑页发布作品，审核状态页的第一个作品名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创作页发布作品，在线作品页的作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创作页发布作品，审核状态页的第一个作品名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创作页发布作品后，审核状态页的第一个作品状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创作页发布作品后，作品社区的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.tabs-title &gt; div:nth-child(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作课程按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.creat-button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-input--small .el-select__caret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建课程-关闭分类选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作页弹出选择分类框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is-reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作品确定分类1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作品确定分类2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-select-dropdown__item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程图标地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程介绍图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.avatar-uploader-icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入课程介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本_猴子2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子3</t>
+  </si>
+  <si>
+    <t>猴子3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本_猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素名称（社区平台和课程中心）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item__content &gt; .el-input &gt; .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.chapter-edit span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加章节按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item:nth-child(2) .el-textarea__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定新增章节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入第一章简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button--success &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加课时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form:nth-child(3) .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.listBox &gt; .el-button:nth-child(2) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入课时名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.list-item-title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.list-item-title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击上传课件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在wins窗口上传课件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存课时按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击选择第一个场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入第一章名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-col-3 &gt; .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存课程到草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button--default:nth-child(2) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form:nth-child(1) .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程保存草稿，检查草稿页的第一个草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本_斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-草稿页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-col-2 &gt; .el-button--primary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.addBlue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>.addSelected</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复制作品</t>
+    <t>.workBench-right-item:nth-child(1) .addRotate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程草稿箱右下角的设置按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backRotate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑课程名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑课程介绍图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑课程icon地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除课程，草稿页的第一个课程的名称不为斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑课程icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.avatar:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-icon-delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除课程第一张介绍图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li/div/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-textarea__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-textarea__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步进入添加章节页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑更改课程简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改章节名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改章节简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#el-collapse-head-8503 &gt; .el-collapse-item__arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑第一课时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击从资源库获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马🦓（英文名称：zebra）：是现存的奇蹄目马科马属3种兽类的通称。因身上有起保护作用的斑纹而得名。没有任何动物比斑马的皮毛更与众不同。斑马周身的条纹和人类的指纹一样——没有任何两头完全相同。斑马为非洲特产。非洲东部、中部和南部产平原斑马，由腿至蹄具条纹或腿部无条纹。东非还产一种格式斑马，体格最大，耳长（约20厘米）而宽，全身条纹窄而密，因而又名细纹斑马。南非洲产山斑马，与其它两种斑马不同的是，它有一对象驴似的大长耳朵。除腹部外，全身密布较宽的黑条纹，雄体喉部有垂肉。斑马是草食性动物。除了草之外，灌木、树枝、树叶甚至树皮也是它们的食物。适应能力较强的消化系统，令斑马可以在低营养条件下生存，比其他草食性动物优胜。斑马对非洲疾病的抗病力比马强，但斑马始终未能被驯化成家畜，也没有能和马进行杂交。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list-item-title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除第一个场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.scene-item:nth-child(1) &gt; .el-icon-delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除第一个课件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button:nth-child(5) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑上传新的课件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-col-2 &gt; .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'修改')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[3]/img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#el-collapse-head-7785 .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑更改章节1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//button[contains(.,'编辑')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#el-collapse-head-6631 .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入第一课时名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击弹出已有课时列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div/div/div/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div/div/div/div[2]/div/div/div/div/div[2]/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑添加第二个场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.courseware-name &gt; .el-icon-delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-delete deleteIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'上传课件')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一课时标题😄😄😄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存到草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-col &gt; .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'保存到草稿')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿页发布按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.popper &gt; div:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[4]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.tabs-item:nth-child(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div[2]/div/div[2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -263,219 +870,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#shequ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全息展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮助中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放大镜搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精选作品排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新发布排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MORE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.list &gt; div:nth-child(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.list &gt; div:nth-child(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.list &gt; div:nth-child(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作作品页发布作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑页修改作品名称并发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在编辑页发布作品后，作品社区的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击设置按钮发布作品，在线作品页的作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击设置按钮发布作品，作品从草稿箱消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击设置按钮发布作品，审核状态页的第一个作品的审核状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击设置按钮发布作品，审核状态页的第一个作品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击设置按钮发布作品，作品社区的作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在编辑页发布作品后，审核状态页的第一个作品状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在编辑页发布作品，在线作品页的作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在编辑页发布作品，审核状态页的第一个作品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在创作页发布作品，在线作品页的作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在创作页发布作品，审核状态页的第一个作品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在创作页发布作品后，审核状态页的第一个作品状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在创作页发布作品后，作品社区的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.tabs-title &gt; div:nth-child(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作课程按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.creat-button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-input--small .el-select__caret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建课程-关闭分类选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作页弹出选择分类框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.is-reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作品确定分类1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作品确定分类2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-select-dropdown__item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程图标地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程介绍图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.avatar-uploader-icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入课程名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入课程介绍</t>
+    <t>//div[2]/div/div[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-table_5_column_26 is-center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态页（课程）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态页第一个课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ellipsis_box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程页我的草稿第一个课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的在线课程页第一个课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的在线课程页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的草稿页发布课程，我的在草稿页第一个课程的名称不为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品/课程-我的草稿页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态-全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态-待审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态-已通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态-未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='tab-first']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='tab-third']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='tab-fourth']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='tab-second']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-submenu:nth-child(9) &gt; .el-submenu__title &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'课程管理')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程管理-课程分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程管理-课程审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程管理-上下架管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is-opened .el-menu-item:nth-child(1) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is-active .el-menu-item:nth-child(2) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'课程审核')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'课程分类')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is-active .el-menu-item:nth-child(3) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'上下架管理')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核点击审核第一个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(1) &gt; .el-table_7_column_58 span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//td[10]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//tr[2]/td[10]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核点击审核第二个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核页审核不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-select--small:nth-child(1) &gt; .el-input:nth-child(1) .el-select__caret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[3]/div/div/div/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核页点击弹出审核选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核页审核通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -483,585 +1034,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猴子2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本_猴子2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子3</t>
-  </si>
-  <si>
-    <t>猴子3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本_猴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素名称（社区平台和课程中心）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item__content &gt; .el-input &gt; .el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.chapter-edit span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加章节按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item:nth-child(2) .el-textarea__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定新增章节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入第一章简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-button--success &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击添加课时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form:nth-child(3) .el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.listBox &gt; .el-button:nth-child(2) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入课时名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.list-item-title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.list-item-title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击上传课件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在wins窗口上传课件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存课时按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击选择第一个场景文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入第一章名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-col-3 &gt; .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存课程到草稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-button--default:nth-child(2) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章的章节介绍😄第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form:nth-child(1) .el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程保存草稿，检查草稿页的第一个草稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本_斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-草稿页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-col-2 &gt; .el-button--primary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.addBlue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.addSelected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.workBench-right-item:nth-child(1) .addRotate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程草稿箱右下角的设置按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backRotate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑课程名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑课程介绍图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑课程icon地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除课程，草稿页的第一个课程的名称不为斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击编辑课程icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.avatar:nth-child(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-icon-delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除课程第一张介绍图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//li/div/span/span/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-textarea__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-textarea__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步进入添加章节页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑更改课程简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改章节名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改章节简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#el-collapse-head-8503 &gt; .el-collapse-item__arrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击编辑第一课时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击从资源库获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马🦓（英文名称：zebra）：是现存的奇蹄目马科马属3种兽类的通称。因身上有起保护作用的斑纹而得名。没有任何动物比斑马的皮毛更与众不同。斑马周身的条纹和人类的指纹一样——没有任何两头完全相同。斑马为非洲特产。非洲东部、中部和南部产平原斑马，由腿至蹄具条纹或腿部无条纹。东非还产一种格式斑马，体格最大，耳长（约20厘米）而宽，全身条纹窄而密，因而又名细纹斑马。南非洲产山斑马，与其它两种斑马不同的是，它有一对象驴似的大长耳朵。除腹部外，全身密布较宽的黑条纹，雄体喉部有垂肉。斑马是草食性动物。除了草之外，灌木、树枝、树叶甚至树皮也是它们的食物。适应能力较强的消化系统，令斑马可以在低营养条件下生存，比其他草食性动物优胜。斑马对非洲疾病的抗病力比马强，但斑马始终未能被驯化成家畜，也没有能和马进行杂交。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list-item-title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除第一个场景文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.scene-item:nth-child(1) &gt; .el-icon-delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除第一个课件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-button:nth-child(5) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑上传新的课件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-col-2 &gt; .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'修改')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div[3]/img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#el-collapse-head-7785 .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击编辑更改章节1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//button[contains(.,'编辑')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#el-collapse-head-6631 .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入第一课时名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击弹出已有课时列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div/div/div/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div/div/div/div[2]/div/div/div/div/div[2]/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑添加第二个场景文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.courseware-name &gt; .el-icon-delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-icon-delete deleteIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'上传课件')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一课时标题😄😄😄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存到草稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-col &gt; .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'保存到草稿')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草稿页发布按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.popper &gt; div:nth-child(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div[4]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.tabs-item:nth-child(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div[2]/div/div[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.tabs-item:nth-child(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-table_5_column_26 is-center</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态页（课程）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态页第一个课程名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ellipsis_box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程页我的草稿第一个课程名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的在线课程页第一个课程名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的在线课程页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的草稿页发布课程，我的在草稿页第一个课程的名称不为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品/课程-我的草稿页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态-全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态-待审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态-已通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态-未通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='tab-first']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='tab-third']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='tab-fourth']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='tab-second']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-submenu:nth-child(9) &gt; .el-submenu__title &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'课程管理')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程管理-课程分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程管理-课程审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程管理-上下架管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.is-opened .el-menu-item:nth-child(1) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.is-active .el-menu-item:nth-child(2) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'课程审核')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'课程分类')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.is-active .el-menu-item:nth-child(3) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'上下架管理')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核点击审核第一个作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-table__row:nth-child(1) &gt; .el-table_7_column_58 span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//td[10]/div/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//tr[2]/td[10]/div/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核点击审核第二个作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核页审核不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-select--small:nth-child(1) &gt; .el-input:nth-child(1) .el-select__caret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[3]/div/div/div/span/span/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核页点击弹出审核选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核页审核通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-upload &gt; .el-icon-plus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猴子4🐒齐天大圣归来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1082,24 +1054,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E:\zhuqueAutomation\photos\monkey.png</t>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\monkey03.png</t>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\monkey05.png</t>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\monkey02.png</t>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\monkey04.png</t>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\monkey06.bmp</t>
-  </si>
-  <si>
     <t>E:\zhuqueAutomation\photos\banma.jpg</t>
   </si>
   <si>
@@ -1107,9 +1061,6 @@
   </si>
   <si>
     <t>E:\zhuqueAutomation\photos\AI教程#!.ppt</t>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\斑马2.jpg</t>
   </si>
   <si>
     <t>E:\zhuqueAutomation\photos\素材.ppt</t>
@@ -1192,10 +1143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我的草稿页发布课程，审核状态页-已通过页，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在创作页发布课程，在线作品页的课程名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1215,91 +1162,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>.el-col-3 &gt; .el-button--default &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'发布到课程社区')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-创作页页发布-课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-创作页页发布-课程简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-创作页页发布-icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-创作页页发布-介绍图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-编辑页发布-icon地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-编辑页发布-介绍图地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-编辑页发布-课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-编辑页发布-课程简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-编辑页发布-课程分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-创作页页发布-场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-编辑页发布-场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\斑马3.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\斑马3.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马4简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\斑马4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\斑马4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章的章节介绍😄第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的草稿页发布课程，审核状态页-已通过页的课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\斑马2#.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\斑马2#.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey03.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey04.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>课程-编辑页发布-发布按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.el-col-3 &gt; .el-button--default &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'发布到课程社区')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-创作页页发布-课程名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-创作页页发布-课程简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-创作页页发布-icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-创作页页发布-介绍图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-编辑页发布-icon地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-编辑页发布-介绍图地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-编辑页发布-课程名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-编辑页发布-课程简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-编辑页发布-课程分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-创作页页发布-场景文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-编辑页发布-场景文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\斑马3.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\斑马3.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马4简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\斑马4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\斑马4.png</t>
+    <t>E:\zhuqueAutomation\photos\monkey04.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey01.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey02.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey03.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击输入作品介绍图，删除介绍图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击选择作品图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.avatar:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-icon-delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[3]/div/div[2]/form/div[2]/div/div/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[3]/div/div[2]/form/div[3]/div/div/div/div/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.addSelected</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1651,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1684,10 +1711,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1695,13 +1722,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1709,13 +1736,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1723,10 +1750,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1734,10 +1761,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1745,10 +1772,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1756,10 +1783,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1767,10 +1794,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1778,10 +1805,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1789,10 +1816,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1800,10 +1827,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1811,10 +1838,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1822,10 +1849,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1833,10 +1860,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1844,10 +1871,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1855,10 +1882,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1866,15 +1893,15 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1882,10 +1909,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1893,10 +1920,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1904,10 +1931,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1915,10 +1942,10 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C33" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1926,10 +1953,10 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C34" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1937,10 +1964,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C35" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1948,10 +1975,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C36" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1959,10 +1986,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C37" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1970,10 +1997,10 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C38" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1981,10 +2008,10 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C39" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1992,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C40" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2007,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2021,12 +2048,12 @@
     <col min="4" max="4" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2037,880 +2064,898 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>318</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>315</v>
+      </c>
+      <c r="B6" t="s">
+        <v>316</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="G6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
       <c r="E13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
         <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>321</v>
       </c>
       <c r="E20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D29" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
         <v>107</v>
-      </c>
-      <c r="C36" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C39" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
+        <v>303</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E49" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E57" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D58" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C62" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E63" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D64" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E65" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D66" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D67" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C68" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E68" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E69" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B70" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C70" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D70" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E72" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B73" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C73" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E75" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C76" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E76" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C77" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E77" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C78" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E78" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C79" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E79" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B80" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B81" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B82" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E83" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84" t="s">
         <v>228</v>
-      </c>
-      <c r="E84" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E85" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E86" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C87" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="E87" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="D88" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D89" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="C91" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C92" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D93" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D94" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="D95" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C96" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="C97" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2936,96 +2981,96 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
         <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3063,94 +3108,94 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" t="s">
         <v>238</v>
-      </c>
-      <c r="C4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E4" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" t="s">
         <v>240</v>
-      </c>
-      <c r="C6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E9" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/cases/case.xlsx
+++ b/cases/case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="422">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,455 +89,431 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>点击作品简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入作品简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button--warning &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存作品草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.avatar-uploader-icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.creat-button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.popper &gt; div:nth-child(4)</t>
+  </si>
+  <si>
+    <t>点击作品1的设置按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.workBench-right-item:nth-child(1) .backRotate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断草稿箱中第一个作品的名称不为work001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断创建的作品是否在作品的草稿页中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item :nth-child(1) .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑work001为work002，判断是否修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.popper &gt; div:nth-child(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.popper &gt; div:nth-child(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿页发布作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制的作品的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的在线作品页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.popper &gt; div:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿页发布的作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.tabs-item:nth-child(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未审核</t>
+  </si>
+  <si>
+    <t>未审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未审核状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择场景页搜索按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#shequ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全息展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大镜搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精选作品排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新发布排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.list &gt; div:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.list &gt; div:nth-child(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.list &gt; div:nth-child(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作作品页发布作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页修改作品名称并发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编辑页发布作品后，作品社区的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置按钮发布作品，在线作品页的作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置按钮发布作品，作品从草稿箱消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置按钮发布作品，审核状态页的第一个作品的审核状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置按钮发布作品，审核状态页的第一个作品名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置按钮发布作品，作品社区的作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编辑页发布作品后，审核状态页的第一个作品状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编辑页发布作品，在线作品页的作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编辑页发布作品，审核状态页的第一个作品名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创作页发布作品，在线作品页的作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创作页发布作品，审核状态页的第一个作品名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创作页发布作品后，审核状态页的第一个作品状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创作页发布作品后，作品社区的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.tabs-title &gt; div:nth-child(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作课程按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.creat-button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-input--small .el-select__caret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建课程-关闭分类选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作页弹出选择分类框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is-reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作品确定分类1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作品确定分类2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-select-dropdown__item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程图标地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程介绍图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.avatar-uploader-icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入课程介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本_猴子2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子3</t>
+  </si>
+  <si>
+    <t>猴子3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本_猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素名称（社区平台和课程中心）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item__content &gt; .el-input &gt; .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.chapter-edit span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加章节按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item:nth-child(2) .el-textarea__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定新增章节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入第一章简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>.el-button--success &gt; span</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击作品简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入作品简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击场景文件按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击场景文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-button--warning &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存作品草稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.avatar-uploader-icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本框文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.creat-button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.popper &gt; div:nth-child(4)</t>
-  </si>
-  <si>
-    <t>点击作品1的设置按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除作品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.workBench-right-item:nth-child(1) .backRotate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断草稿箱中第一个作品的名称不为work001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断创建的作品是否在作品的草稿页中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item :nth-child(1) .el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑作品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑work001为work002，判断是否修改成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.popper &gt; div:nth-child(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.popper &gt; div:nth-child(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草稿页发布作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制的作品的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的在线作品页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.popper &gt; div:nth-child(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草稿页发布的作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.tabs-item:nth-child(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未审核</t>
-  </si>
-  <si>
-    <t>未审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未审核状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-image__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择场景页搜索按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择第一个场景文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制作品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.tabs-item:nth-child(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#shequ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全息展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮助中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放大镜搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精选作品排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新发布排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MORE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.list &gt; div:nth-child(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.list &gt; div:nth-child(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.list &gt; div:nth-child(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作作品页发布作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑页修改作品名称并发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在编辑页发布作品后，作品社区的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击设置按钮发布作品，在线作品页的作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击设置按钮发布作品，作品从草稿箱消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击设置按钮发布作品，审核状态页的第一个作品的审核状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击设置按钮发布作品，审核状态页的第一个作品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击设置按钮发布作品，作品社区的作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在编辑页发布作品后，审核状态页的第一个作品状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在编辑页发布作品，在线作品页的作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在编辑页发布作品，审核状态页的第一个作品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在创作页发布作品，在线作品页的作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在创作页发布作品，审核状态页的第一个作品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在创作页发布作品后，审核状态页的第一个作品状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在创作页发布作品后，作品社区的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.tabs-title &gt; div:nth-child(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作课程按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.creat-button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-input--small .el-select__caret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建课程-关闭分类选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作页弹出选择分类框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.is-reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作品确定分类1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作品确定分类2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-select-dropdown__item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程图标地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程介绍图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.avatar-uploader-icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入课程名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入课程介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本_猴子2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子3</t>
-  </si>
-  <si>
-    <t>猴子3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本_猴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素名称（社区平台和课程中心）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item__content &gt; .el-input &gt; .el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.chapter-edit span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加章节按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item:nth-child(2) .el-textarea__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定新增章节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入第一章简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-button--success &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击添加课时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -551,10 +527,6 @@
   </si>
   <si>
     <t>输入课时名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.list-item-title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1327,6 +1299,434 @@
   </si>
   <si>
     <t>.addSelected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@type='text']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zyj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-input--suffix &gt; .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录-输入账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录-输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@type='password']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录-点击登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.login-submit &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[2]/div[3]/div/form/div[4]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-input--medium &gt; .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区管理-作品分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[2]/div/div/div[2]/div/div/ul/div/li[10]/div/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-submenu:nth-child(10) &gt; .el-submenu__title &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(3) .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div/div/div/div[2]/div[3]/table/tbody/tr[3]/td[10]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(2) .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div/div/div/div[2]/div[3]/table/tbody/tr[2]/td[10]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(1) .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div/div/div/div[2]/div[3]/table/tbody/tr/td[10]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(1) .el-button--danger &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div/div/div/div[2]/div[3]/table/tbody/tr/td[10]/div/button[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(2) .el-button--danger &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(3) .el-button--danger &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div/div/div/div[2]/div[3]/table/tbody/tr[3]/td[10]/div/button[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div/div/div/div[2]/div[3]/table/tbody/tr[2]/td[10]/div/button[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区管理-作品审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-审核第三个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-审核第二个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-删除第一个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-删除第二个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-删除第三个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-select:nth-child(2) .el-select__caret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.hover &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'动物世界')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button:nth-child(5) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'搜索')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-select:nth-child(3) .el-select__caret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.hover:nth-child(1) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'已审核')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.hover:nth-child(3) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.hover:nth-child(2) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'未通过')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'未审核')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button:nth-child(6) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'重置')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-审核第一个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div[2]/div/div[2]/form/div/div/div/div/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item__content .el-input:nth-child(1) .el-select__caret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.hover:nth-child(1) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'已通过')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品分类-动物世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品分类-自然科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-select-dropdown:nth-child(19) .el-select-dropdown__item:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[7]/div/div/ul/li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-select-dropdown:nth-child(19) .el-select-dropdown__item:nth-child(2) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[7]/div/div/ul/li[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品分类-点击关闭作品分类选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is-reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[3]/div/div/textarea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'保存')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-col &gt; .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-搜索-弹出作品状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-搜索-选择作品状态已审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-搜索-选择作品状态未审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-搜索-作品状态未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-搜索重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-搜索-弹出作品分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-搜索-弹出作品分类-选择第一个分类动物世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-搜索-点击搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-点击弹出作品状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品分类-点击弹出作品分类选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is-reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//form/div/div/div/div/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-点击关闭作品状态选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'作品审核')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'作品分类')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is-active .el-menu-item:nth-child(1) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'未通过')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item:nth-child(4) .el-textarea__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核原因-通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核原因-不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-input:nth-child(2) &gt; .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过通过通过通过通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不通过不通过不通过不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'从资源库获取')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button--success:nth-child(2) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择第一个场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第2个作品不通过，作品社区的作品消失，第2个作品名称不为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第1个作品通过，作品社区的作品消失，第1个作品名称为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第3个作品不通过，作品社区的作品消失，第3个作品名称不为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第3个作品不通过，我的在线作品页该作品消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择第二个场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.list-item:nth-child(1) &gt; .list-item-title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.list-item:nth-child(2) &gt; .list-item-title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第2个作品不通过，我的在线作品页该作品消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第1个作品通过，我的在线作品页第1个作品名称为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div[2]/div/div[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.tabs-item:nth-child(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item:nth-child(4) .el-textarea__inner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1676,15 +2076,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="51.75" customWidth="1"/>
+    <col min="2" max="2" width="53.75" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="38.375" customWidth="1"/>
   </cols>
@@ -1711,10 +2111,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1722,13 +2122,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1736,13 +2136,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1750,10 +2150,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1761,10 +2161,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1772,10 +2172,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1783,10 +2183,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1794,10 +2194,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1805,10 +2205,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1816,10 +2216,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1827,10 +2227,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1838,10 +2238,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1849,10 +2249,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1860,10 +2260,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1871,10 +2271,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1882,10 +2282,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1893,15 +2293,15 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1909,10 +2309,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1920,10 +2320,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1931,10 +2331,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1942,10 +2342,10 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C33" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1953,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C34" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1964,10 +2364,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C35" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1975,10 +2375,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C36" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1986,10 +2386,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C37" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1997,10 +2397,10 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2008,10 +2408,10 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C39" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2019,10 +2419,63 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C40" t="s">
-        <v>277</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>412</v>
+      </c>
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>410</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>411</v>
+      </c>
+      <c r="C49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>413</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>417</v>
+      </c>
+      <c r="C51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>418</v>
+      </c>
+      <c r="C52" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2036,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2064,10 +2517,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2075,7 +2528,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2083,75 +2536,75 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F6" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G6" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H7" t="s">
         <v>310</v>
-      </c>
-      <c r="H7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -2159,7 +2612,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -2167,240 +2620,246 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>408</v>
+      </c>
+      <c r="D10" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>409</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E20" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>414</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D29" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -2408,554 +2867,554 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C39" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E44" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E45" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E49" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E51" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C52" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E57" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E63" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E65" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D66" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D67" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C68" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E68" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C69" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E69" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B70" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D70" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E72" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B73" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C74" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C75" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E75" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C76" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E76" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C77" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E77" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C78" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E78" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C79" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E79" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B80" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B82" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E83" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E84" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E85" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E86" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C87" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E87" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D88" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D89" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C91" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C92" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D93" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D94" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D95" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C96" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C97" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2970,7 +3429,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2981,96 +3440,96 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3081,15 +3540,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="57.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -3108,98 +3570,449 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E9" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13">
+        <v>123456</v>
+      </c>
+      <c r="E13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" t="s">
+        <v>322</v>
+      </c>
+      <c r="E14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C19" t="s">
+        <v>331</v>
+      </c>
+      <c r="E19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>346</v>
+      </c>
+      <c r="C21" t="s">
+        <v>338</v>
+      </c>
+      <c r="E21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>345</v>
+      </c>
+      <c r="C22" t="s">
+        <v>337</v>
+      </c>
+      <c r="E22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23" t="s">
+        <v>335</v>
+      </c>
+      <c r="E23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>386</v>
+      </c>
+      <c r="C24" t="s">
+        <v>347</v>
+      </c>
+      <c r="E24" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>387</v>
+      </c>
+      <c r="C25" t="s">
+        <v>349</v>
+      </c>
+      <c r="E25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>388</v>
+      </c>
+      <c r="C26" t="s">
+        <v>351</v>
+      </c>
+      <c r="E26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C27" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>382</v>
+      </c>
+      <c r="C28" t="s">
+        <v>354</v>
+      </c>
+      <c r="E28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>383</v>
+      </c>
+      <c r="C29" t="s">
+        <v>357</v>
+      </c>
+      <c r="E29" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>384</v>
+      </c>
+      <c r="C30" t="s">
+        <v>356</v>
+      </c>
+      <c r="E30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>385</v>
+      </c>
+      <c r="C31" t="s">
+        <v>360</v>
+      </c>
+      <c r="E31" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>390</v>
+      </c>
+      <c r="C32" t="s">
+        <v>365</v>
+      </c>
+      <c r="E32" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>389</v>
+      </c>
+      <c r="C33" t="s">
+        <v>357</v>
+      </c>
+      <c r="E33" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>363</v>
+      </c>
+      <c r="C34" t="s">
+        <v>366</v>
+      </c>
+      <c r="E34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>394</v>
+      </c>
+      <c r="C35" t="s">
+        <v>392</v>
+      </c>
+      <c r="E35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>391</v>
+      </c>
+      <c r="C36" t="s">
+        <v>403</v>
+      </c>
+      <c r="E36" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>368</v>
+      </c>
+      <c r="C37" t="s">
+        <v>370</v>
+      </c>
+      <c r="E37" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>369</v>
+      </c>
+      <c r="C38" t="s">
+        <v>372</v>
+      </c>
+      <c r="E38" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C39" t="s">
+        <v>375</v>
+      </c>
+      <c r="E39" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>401</v>
+      </c>
+      <c r="C40" t="s">
+        <v>399</v>
+      </c>
+      <c r="D40" t="s">
+        <v>405</v>
+      </c>
+      <c r="E40" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C41" t="s">
+        <v>380</v>
+      </c>
+      <c r="E41" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>402</v>
+      </c>
+      <c r="C42" t="s">
+        <v>421</v>
+      </c>
+      <c r="D42" t="s">
+        <v>406</v>
+      </c>
+      <c r="E42" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cases/case.xlsx
+++ b/cases/case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="445">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预期结果描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击输入作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>.el-form-item :nth-child(1) .el-input__inner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,114 +77,684 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>.el-button--warning &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.avatar-uploader-icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.creat-button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.popper &gt; div:nth-child(4)</t>
+  </si>
+  <si>
+    <t>点击作品1的设置按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.workBench-right-item:nth-child(1) .backRotate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断草稿箱中第一个作品的名称不为work001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断创建的作品是否在作品的草稿页中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑work001为work002，判断是否修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.popper &gt; div:nth-child(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.popper &gt; div:nth-child(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.popper &gt; div:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿页发布的作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.tabs-item:nth-child(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未审核</t>
+  </si>
+  <si>
+    <t>未审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未审核状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择场景页搜索按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#shequ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全息展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大镜搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精选作品排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新发布排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.list &gt; div:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.list &gt; div:nth-child(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.list &gt; div:nth-child(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作作品页发布作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页修改作品名称并发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编辑页发布作品后，作品社区的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置按钮发布作品，在线作品页的作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置按钮发布作品，作品从草稿箱消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置按钮发布作品，审核状态页的第一个作品的审核状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置按钮发布作品，审核状态页的第一个作品名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置按钮发布作品，作品社区的作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编辑页发布作品后，审核状态页的第一个作品状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编辑页发布作品，在线作品页的作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编辑页发布作品，审核状态页的第一个作品名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创作页发布作品，在线作品页的作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创作页发布作品，审核状态页的第一个作品名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创作页发布作品后，审核状态页的第一个作品状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创作页发布作品后，作品社区的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.tabs-title &gt; div:nth-child(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作课程按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.creat-button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-input--small .el-select__caret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建课程-关闭分类选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作页弹出选择分类框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is-reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作品确定分类1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作品确定分类2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-select-dropdown__item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程图标地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程介绍图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.avatar-uploader-icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入课程介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本_猴子2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子3</t>
+  </si>
+  <si>
+    <t>猴子3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本_猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素名称（社区平台和课程中心）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item__content &gt; .el-input &gt; .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.chapter-edit span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加章节按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item:nth-child(2) .el-textarea__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定新增章节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入第一章简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button--success &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加课时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form:nth-child(3) .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.listBox &gt; .el-button:nth-child(2) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入课时名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.list-item-title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击上传课件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在wins窗口上传课件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存课时按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击选择第一个场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入第一章名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-col-3 &gt; .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存课程到草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button--default:nth-child(2) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form:nth-child(1) .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程保存草稿，检查草稿页的第一个草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本_斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-草稿页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-col-2 &gt; .el-button--primary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.addBlue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.addSelected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.workBench-right-item:nth-child(1) .addRotate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程草稿箱右下角的设置按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backRotate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑课程名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑课程介绍图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑课程icon地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除课程，草稿页的第一个课程的名称不为斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑课程icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.avatar:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-icon-delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除课程第一张介绍图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li/div/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>.el-textarea__inner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击作品简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入作品简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-button--warning &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存作品草稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.avatar-uploader-icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本框文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.creat-button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.popper &gt; div:nth-child(4)</t>
-  </si>
-  <si>
-    <t>点击作品1的设置按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除作品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.workBench-right-item:nth-child(1) .backRotate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断草稿箱中第一个作品的名称不为work001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断创建的作品是否在作品的草稿页中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item :nth-child(1) .el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑作品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑work001为work002，判断是否修改成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.popper &gt; div:nth-child(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.popper &gt; div:nth-child(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草稿页发布作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制的作品的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的在线作品页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态页</t>
+    <t>.el-textarea__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步进入添加章节页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑更改课程简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改章节名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改章节简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#el-collapse-head-8503 &gt; .el-collapse-item__arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑第一课时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击从资源库获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马🦓（英文名称：zebra）：是现存的奇蹄目马科马属3种兽类的通称。因身上有起保护作用的斑纹而得名。没有任何动物比斑马的皮毛更与众不同。斑马周身的条纹和人类的指纹一样——没有任何两头完全相同。斑马为非洲特产。非洲东部、中部和南部产平原斑马，由腿至蹄具条纹或腿部无条纹。东非还产一种格式斑马，体格最大，耳长（约20厘米）而宽，全身条纹窄而密，因而又名细纹斑马。南非洲产山斑马，与其它两种斑马不同的是，它有一对象驴似的大长耳朵。除腹部外，全身密布较宽的黑条纹，雄体喉部有垂肉。斑马是草食性动物。除了草之外，灌木、树枝、树叶甚至树皮也是它们的食物。适应能力较强的消化系统，令斑马可以在低营养条件下生存，比其他草食性动物优胜。斑马对非洲疾病的抗病力比马强，但斑马始终未能被驯化成家畜，也没有能和马进行杂交。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list-item-title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除第一个场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.scene-item:nth-child(1) &gt; .el-icon-delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除第一个课件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button:nth-child(5) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑上传新的课件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-col-2 &gt; .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'修改')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[3]/img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#el-collapse-head-7785 .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑更改章节1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//button[contains(.,'编辑')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#el-collapse-head-6631 .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入第一课时名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击弹出已有课时列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div/div/div/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div/div/div/div[2]/div/div/div/div/div[2]/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑添加第二个场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.courseware-name &gt; .el-icon-delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-delete deleteIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'上传课件')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一课时标题😄😄😄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存到草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-col &gt; .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'保存到草稿')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿页发布按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -200,7 +762,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>草稿页发布的作品名称</t>
+    <t>//div[2]/div/div/div[4]/div</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -208,632 +770,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未审核</t>
-  </si>
-  <si>
-    <t>未审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未审核状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择场景页搜索按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制作品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#shequ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全息展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮助中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放大镜搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精选作品排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新发布排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MORE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.list &gt; div:nth-child(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.list &gt; div:nth-child(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.list &gt; div:nth-child(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作作品页发布作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑页修改作品名称并发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在编辑页发布作品后，作品社区的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击设置按钮发布作品，在线作品页的作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击设置按钮发布作品，作品从草稿箱消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击设置按钮发布作品，审核状态页的第一个作品的审核状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击设置按钮发布作品，审核状态页的第一个作品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击设置按钮发布作品，作品社区的作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在编辑页发布作品后，审核状态页的第一个作品状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在编辑页发布作品，在线作品页的作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在编辑页发布作品，审核状态页的第一个作品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在创作页发布作品，在线作品页的作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在创作页发布作品，审核状态页的第一个作品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在创作页发布作品后，审核状态页的第一个作品状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在创作页发布作品后，作品社区的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.tabs-title &gt; div:nth-child(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作课程按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.creat-button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-input--small .el-select__caret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建课程-关闭分类选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作页弹出选择分类框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.is-reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作品确定分类1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作品确定分类2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-select-dropdown__item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程图标地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程介绍图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.avatar-uploader-icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入课程名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入课程介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本_猴子2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子3</t>
-  </si>
-  <si>
-    <t>猴子3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本_猴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素名称（社区平台和课程中心）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item__content &gt; .el-input &gt; .el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.chapter-edit span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加章节按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item:nth-child(2) .el-textarea__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定新增章节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入第一章简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-button--success &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击添加课时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form:nth-child(3) .el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.listBox &gt; .el-button:nth-child(2) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入课时名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.list-item-title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击上传课件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在wins窗口上传课件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存课时按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击选择第一个场景文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入第一章名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-col-3 &gt; .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存课程到草稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-button--default:nth-child(2) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章的章节介绍第二章@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form:nth-child(1) .el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程保存草稿，检查草稿页的第一个草稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本_斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-草稿页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-col-2 &gt; .el-button--primary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.addBlue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.addSelected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.workBench-right-item:nth-child(1) .addRotate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程草稿箱右下角的设置按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backRotate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑课程名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑课程介绍图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑课程icon地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除课程，草稿页的第一个课程的名称不为斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击编辑课程icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.avatar:nth-child(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-icon-delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除课程第一张介绍图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//li/div/span/span/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-textarea__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-textarea__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步进入添加章节页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑更改课程简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改章节名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改章节简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#el-collapse-head-8503 &gt; .el-collapse-item__arrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击编辑第一课时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击从资源库获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马🦓（英文名称：zebra）：是现存的奇蹄目马科马属3种兽类的通称。因身上有起保护作用的斑纹而得名。没有任何动物比斑马的皮毛更与众不同。斑马周身的条纹和人类的指纹一样——没有任何两头完全相同。斑马为非洲特产。非洲东部、中部和南部产平原斑马，由腿至蹄具条纹或腿部无条纹。东非还产一种格式斑马，体格最大，耳长（约20厘米）而宽，全身条纹窄而密，因而又名细纹斑马。南非洲产山斑马，与其它两种斑马不同的是，它有一对象驴似的大长耳朵。除腹部外，全身密布较宽的黑条纹，雄体喉部有垂肉。斑马是草食性动物。除了草之外，灌木、树枝、树叶甚至树皮也是它们的食物。适应能力较强的消化系统，令斑马可以在低营养条件下生存，比其他草食性动物优胜。斑马对非洲疾病的抗病力比马强，但斑马始终未能被驯化成家畜，也没有能和马进行杂交。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list-item-title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除第一个场景文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.scene-item:nth-child(1) &gt; .el-icon-delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除第一个课件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-button:nth-child(5) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑上传新的课件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-col-2 &gt; .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'修改')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div[3]/img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#el-collapse-head-7785 .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击编辑更改章节1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//button[contains(.,'编辑')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#el-collapse-head-6631 .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入第一课时名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击弹出已有课时列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div/div/div/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div/div/div/div[2]/div/div/div/div/div[2]/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑添加第二个场景文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.courseware-name &gt; .el-icon-delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-icon-delete deleteIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'上传课件')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一课时标题😄😄😄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存到草稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-col &gt; .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'保存到草稿')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草稿页发布按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.popper &gt; div:nth-child(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div[4]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.tabs-item:nth-child(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[2]/div/div[2]/div/div[2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -875,10 +811,6 @@
   </si>
   <si>
     <t>我的草稿页发布课程，我的在草稿页第一个课程的名称不为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品/课程-我的草稿页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1266,18 +1198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E:\zhuqueAutomation\photos\monkey03.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击输入作品介绍图，删除介绍图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击选择作品图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>.avatar:nth-child(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1298,10 +1218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.addSelected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//input[@type='text']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1678,10 +1594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择第一个场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>审核第2个作品不通过，作品社区的作品消失，第2个作品名称不为</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1694,39 +1606,218 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>选择第二个场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.list-item:nth-child(1) &gt; .list-item-title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.list-item:nth-child(2) &gt; .list-item-title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第2个作品不通过，我的在线作品页该作品消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div[2]/div/div[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.tabs-item:nth-child(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item:nth-child(4) .el-textarea__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>审核第3个作品不通过，我的在线作品页该作品消失</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择第二个场景文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.list-item:nth-child(1) &gt; .list-item-title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.list-item:nth-child(2) &gt; .list-item-title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第2个作品不通过，我的在线作品页该作品消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>审核第1个作品通过，我的在线作品页第1个作品名称为</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[2]/div/div[2]/div/div[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.tabs-item:nth-child(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item:nth-child(4) .el-textarea__inner</t>
+    <t>未通过</t>
+  </si>
+  <si>
+    <t>未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-审核状态-第二个作品的编辑按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//tr[2]/td[5]/div/button[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(2) .el-button:nth-child(2) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-审核状态-编辑作品icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-审核状态-编辑作品介绍图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-审核状态-编辑作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-审核状态-编辑作品简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey05.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-textarea__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-选择第一个场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-点击从资源库获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-输入作品简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-点击作品简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-点击输入作品介绍图，删除介绍图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-点击选择作品图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-输入作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-点击输入作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-创建作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-删除作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-编辑作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-编辑作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-复制作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-草稿页发布作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-复制的作品的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-保存为草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item :nth-child(1) .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">猴子5是一个俗名，灵长目中很多动物我们都称为猴。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第3个作品不通过，审核状态页的状态为未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第2个作品不通过，审核状态页的状态为未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第1个作品不通过，审核状态页的状态为已审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑审核状态页的第二个作品，保存为草稿，名称为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑审核状态页的第二个作品，点击发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.tabs-item:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品/课程-我的草稿页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-我的在线作品页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-作品审核状态页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'发布到社区平台')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看审核状态页的再发布的第二个作品的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子5只在那里坐着发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2076,10 +2167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2100,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2111,10 +2202,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2122,13 +2213,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2136,13 +2227,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2150,10 +2241,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2161,10 +2252,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2172,10 +2263,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2183,10 +2274,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2194,10 +2285,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2205,10 +2296,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2216,10 +2307,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2227,10 +2318,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2238,10 +2329,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2249,10 +2340,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2260,10 +2351,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2271,10 +2362,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2282,10 +2373,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2293,15 +2384,15 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2309,10 +2400,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2320,10 +2411,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2331,10 +2422,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2342,10 +2433,10 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C33" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2353,10 +2444,10 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C34" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2364,10 +2455,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C35" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2375,10 +2466,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="C36" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2386,10 +2477,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C37" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2397,10 +2488,10 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C38" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2408,10 +2499,10 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C39" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2419,63 +2510,111 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C40" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="C49" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="C52" t="s">
-        <v>245</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>430</v>
+      </c>
+      <c r="C53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>431</v>
+      </c>
+      <c r="C54" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>432</v>
+      </c>
+      <c r="C55" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>433</v>
+      </c>
+      <c r="C56" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>442</v>
+      </c>
+      <c r="C57" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>434</v>
+      </c>
+      <c r="C58" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -2487,10 +2626,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2503,7 +2642,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2511,910 +2650,965 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>420</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>419</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>418</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F6" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="G6" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="D7" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E7" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F7" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="G7" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="H7" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>415</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>414</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>413</v>
       </c>
       <c r="C10" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="D10" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C11" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>427</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>421</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>422</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>423</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>424</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>425</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>426</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>213</v>
+        <v>437</v>
       </c>
       <c r="C20" t="s">
-        <v>314</v>
+        <v>435</v>
       </c>
       <c r="E20" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>438</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>439</v>
       </c>
       <c r="C22" t="s">
-        <v>420</v>
+        <v>396</v>
+      </c>
+      <c r="E22" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="C26" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="D29" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C39" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D40" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E44" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E51" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D58" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C59" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E63" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D64" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E65" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D66" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C70" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B73" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C73" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C74" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C75" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E75" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C76" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E76" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C77" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E77" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="E78" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C79" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E79" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B80" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B81" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B82" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E83" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E84" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="E85" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="E86" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C87" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="E87" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="D88" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D89" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C91" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C92" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="D93" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D94" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="D95" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C96" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="C97" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>284</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>403</v>
+      </c>
+      <c r="C99" t="s">
+        <v>405</v>
+      </c>
+      <c r="E99" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>408</v>
+      </c>
+      <c r="C100" t="s">
+        <v>428</v>
+      </c>
+      <c r="D100" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>406</v>
+      </c>
+      <c r="C101" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>407</v>
+      </c>
+      <c r="C102" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>409</v>
+      </c>
+      <c r="C103" t="s">
+        <v>411</v>
+      </c>
+      <c r="D103" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -3426,10 +3620,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3438,98 +3632,101 @@
     <col min="3" max="3" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C15" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3556,7 +3753,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3564,450 +3761,450 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="E7" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="C12" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="D12" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="E12" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="C13" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="D13">
         <v>123456</v>
       </c>
       <c r="E13" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="C14" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E14" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="C15" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="E15" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="C16" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="E16" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="C18" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="E18" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C19" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="E19" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="C20" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="E20" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C21" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="E21" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C22" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="E22" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C23" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="E23" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C24" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="E24" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="C25" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="E25" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="C26" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="E26" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C27" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="C28" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="E28" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="C29" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="E29" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C30" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="E30" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="C31" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="E31" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C32" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="E32" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="C33" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="E33" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C34" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="E34" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="C35" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="E35" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="C36" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="E36" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="C37" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="E37" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="C38" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="E38" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="C39" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="E39" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="C40" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="D40" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="E40" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="C41" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="E41" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="C42" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="D42" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="E42" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/cases/case.xlsx
+++ b/cases/case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="554">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>css</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,10 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.list-item-title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击上传课件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -898,26 +890,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.el-table__row:nth-child(1) &gt; .el-table_7_column_58 span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//td[10]/div/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//tr[2]/td[10]/div/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>课程审核点击审核第二个作品按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>课程审核页审核不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>.el-select--small:nth-child(1) &gt; .el-input:nth-child(1) .el-select__caret</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -956,12 +932,6 @@
   <si>
     <t>//span[contains(.,'从资源库获取')]</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\banma.jpg</t>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\banma1.png</t>
   </si>
   <si>
     <t>E:\zhuqueAutomation\photos\AI教程#!.ppt</t>
@@ -1114,10 +1084,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>课程-编辑页发布-场景文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>斑马3简介</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1134,19 +1100,1046 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>斑马4简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\斑马4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\斑马4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章的章节介绍😄第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的草稿页发布课程，审核状态页-已通过页的课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\斑马2#.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\斑马2#.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey03.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey04.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-编辑页发布-发布按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey04.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey01.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey02.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.avatar:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-icon-delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[3]/div/div[2]/form/div[2]/div/div/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[3]/div/div[2]/form/div[3]/div/div/div/div/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@type='text']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zyj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-input--suffix &gt; .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录-输入账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录-输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@type='password']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录-点击登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.login-submit &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[2]/div[3]/div/form/div[4]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-input--medium &gt; .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区管理-作品分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[2]/div/div/div[2]/div/div/ul/div/li[10]/div/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-submenu:nth-child(10) &gt; .el-submenu__title &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(3) .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div/div/div/div[2]/div[3]/table/tbody/tr[3]/td[10]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(2) .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div/div/div/div[2]/div[3]/table/tbody/tr[2]/td[10]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(1) .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div/div/div/div[2]/div[3]/table/tbody/tr/td[10]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(1) .el-button--danger &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div/div/div/div[2]/div[3]/table/tbody/tr/td[10]/div/button[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(2) .el-button--danger &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(3) .el-button--danger &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div/div/div/div[2]/div[3]/table/tbody/tr[3]/td[10]/div/button[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div/div/div/div[2]/div[3]/table/tbody/tr[2]/td[10]/div/button[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区管理-作品审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-审核第三个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-审核第二个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-删除第一个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-删除第二个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-删除第三个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-select:nth-child(2) .el-select__caret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.hover &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'动物世界')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button:nth-child(5) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'搜索')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-select:nth-child(3) .el-select__caret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.hover:nth-child(1) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'已审核')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.hover:nth-child(3) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.hover:nth-child(2) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'未通过')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'未审核')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button:nth-child(6) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'重置')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-审核第一个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div[2]/div/div[2]/form/div/div/div/div/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item__content .el-input:nth-child(1) .el-select__caret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.hover:nth-child(1) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'已通过')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品分类-动物世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品分类-自然科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-select-dropdown:nth-child(19) .el-select-dropdown__item:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[7]/div/div/ul/li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-select-dropdown:nth-child(19) .el-select-dropdown__item:nth-child(2) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[7]/div/div/ul/li[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品分类-点击关闭作品分类选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is-reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[3]/div/div/textarea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'保存')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-col &gt; .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-搜索-弹出作品状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-搜索-选择作品状态已审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-搜索-选择作品状态未审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-搜索-作品状态未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-搜索重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-搜索-弹出作品分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-搜索-弹出作品分类-选择第一个分类动物世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-搜索-点击搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-点击弹出作品状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品分类-点击弹出作品分类选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is-reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//form/div/div/div/div/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品审核-点击关闭作品状态选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'作品审核')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'作品分类')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is-active .el-menu-item:nth-child(1) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'未通过')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item:nth-child(4) .el-textarea__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核原因-通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核原因-不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-input:nth-child(2) &gt; .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'从资源库获取')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button--success:nth-child(2) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第2个作品不通过，作品社区的作品消失，第2个作品名称不为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第1个作品通过，作品社区的作品消失，第1个作品名称为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第3个作品不通过，作品社区的作品消失，第3个作品名称不为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.list-item:nth-child(1) &gt; .list-item-title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.list-item:nth-child(2) &gt; .list-item-title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第2个作品不通过，我的在线作品页该作品消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div[2]/div/div[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.tabs-item:nth-child(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item:nth-child(4) .el-textarea__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第3个作品不通过，我的在线作品页该作品消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第1个作品通过，我的在线作品页第1个作品名称为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未通过</t>
+  </si>
+  <si>
+    <t>未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-审核状态-第二个作品的编辑按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//tr[2]/td[5]/div/button[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(2) .el-button:nth-child(2) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-审核状态-编辑作品icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-审核状态-编辑作品介绍图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-审核状态-编辑作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-审核状态-编辑作品简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\monkey05.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-textarea__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-选择第一个场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-点击从资源库获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-输入作品简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-点击作品简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-点击输入作品介绍图，删除介绍图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-点击选择作品图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-输入作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-点击输入作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-创建作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-删除作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-编辑作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-编辑作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-复制作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-草稿页发布作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-复制的作品的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-保存为草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item :nth-child(1) .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">猴子5是一个俗名，灵长目中很多动物我们都称为猴。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第3个作品不通过，审核状态页的状态为未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第2个作品不通过，审核状态页的状态为未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第1个作品不通过，审核状态页的状态为已审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑审核状态页的第二个作品，保存为草稿，名称为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑审核状态页的第二个作品，点击发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.tabs-item:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品/课程-我的草稿页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-我的在线作品页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-作品审核状态页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'发布到社区平台')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看审核状态页的再发布的第二个作品的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子5只在那里坐着发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核页审核不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(3) &gt; .el-table_1_column_10 span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核点击审核第三个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//tr[3]/td[10]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(2) &gt; .el-table_1_column_10 span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//tr[2]/td[10]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(1) &gt; .el-table_1_column_10 span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//td[10]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item:nth-child(5) .el-textarea__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-审核原因填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核通过课程审核通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品通过作品通过作品通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品不通过作品不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[5]/div/div/textarea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-审核不通过原因填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核不通过课程审核不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-radio:nth-child(2) .el-radio__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-radio:nth-child(1) .el-radio__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-radio:nth-child(3) .el-radio__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//label/span/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//label[2]/span/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//label[3]/span/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-课程难度初级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-课程难度中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-课程难度高级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-课程分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程分类-动物世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程分类-点击关闭作品分类选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程分类-自然科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程分类-多彩的生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[4]/div/div/ul/li/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[2]/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item__content .el-input:nth-child(2) .el-select__caret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程状态-已审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程状态-未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-select--small:nth-child(1) &gt; .el-input:nth-child(1) .el-select__caret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[3]/div/div/div/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程状态-点击弹出课程状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程状态-保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-col &gt; .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'保存')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button--default:nth-child(1) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'取消')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item:nth-child(7) .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程状态-取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程原价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程现价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[7]/div/div/div/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is-required .el-input-number .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[8]/div/div/div/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程分类-点击弹出课程分类选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[2]/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[4]/div/div/ul/li[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-tag:nth-child(1) &gt; .el-tag__close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-删除分类-自然科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\banma1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\banma1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#kecheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第二个作品（斑马3）通过，原价19.90，定价0.01，简介斑马3简介，难度中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第一个作品（斑马4）通过，原价0，定价0.00，简介斑马4简介，难度初级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>斑马4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>斑马3简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>斑马4简介</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E:\zhuqueAutomation\photos\斑马4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\斑马4.png</t>
+    <t>初级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第一个作品（斑马2）不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情-时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[2]/div[3]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.time &gt; div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime.now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页课程简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页现价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页存在加入购物车按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页存在结算按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页存在试看按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#tab-chapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#tab-intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情-课程章节页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情-课程介绍页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene-title el-popover__reference</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1154,670 +2147,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一章名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章的章节介绍😄第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章的章节介绍第一章！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的草稿页发布课程，审核状态页-已通过页的课程名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\斑马2#.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\斑马2#.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\monkey03.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\monkey04.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-编辑页发布-发布按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\monkey04.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\monkey01.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\monkey02.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.avatar:nth-child(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-icon-delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='app']/div/div[3]/div/div[2]/form/div[2]/div/div/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='app']/div/div[3]/div/div[2]/form/div[3]/div/div/div/div/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//input[@type='text']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zyj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-input--suffix &gt; .el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录-输入账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录-输入密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//input[@type='password']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录-点击登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.login-submit &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='app']/div/div[2]/div[3]/div/form/div[4]/div/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-input--medium &gt; .el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区管理-作品分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='app']/div/div[2]/div/div/div[2]/div/div/ul/div/li[10]/div/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-submenu:nth-child(10) &gt; .el-submenu__title &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-table__row:nth-child(3) .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div/div/div/div[2]/div[3]/table/tbody/tr[3]/td[10]/div/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-table__row:nth-child(2) .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div/div/div/div[2]/div[3]/table/tbody/tr[2]/td[10]/div/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-table__row:nth-child(1) .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div/div/div/div[2]/div[3]/table/tbody/tr/td[10]/div/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-table__row:nth-child(1) .el-button--danger &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div/div/div/div[2]/div[3]/table/tbody/tr/td[10]/div/button[2]/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-table__row:nth-child(2) .el-button--danger &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-table__row:nth-child(3) .el-button--danger &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div/div/div/div[2]/div[3]/table/tbody/tr[3]/td[10]/div/button[2]/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div/div/div/div[2]/div[3]/table/tbody/tr[2]/td[10]/div/button[2]/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区管理-作品审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品审核-审核第三个作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品审核-审核第二个作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品审核-删除第一个作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品审核-删除第二个作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品审核-删除第三个作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-select:nth-child(2) .el-select__caret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/span/span/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.hover &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'动物世界')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-button:nth-child(5) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'搜索')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-select:nth-child(3) .el-select__caret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.hover:nth-child(1) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'已审核')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.hover:nth-child(3) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.hover:nth-child(2) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'未通过')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'未审核')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-button:nth-child(6) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'重置')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品审核-审核第一个作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品审核-通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='app']/div/div[2]/div[2]/div[2]/div/div/div/div[2]/div/div[2]/form/div/div/div/div/span/span/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item__content .el-input:nth-child(1) .el-select__caret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.hover:nth-child(1) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'已通过')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品分类-动物世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品分类-自然科学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-select-dropdown:nth-child(19) .el-select-dropdown__item:nth-child(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[7]/div/div/ul/li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-select-dropdown:nth-child(19) .el-select-dropdown__item:nth-child(2) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[7]/div/div/ul/li[2]/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品分类-点击关闭作品分类选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.is-reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/span/span/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[3]/div/div/textarea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'保存')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-col &gt; .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品审核-搜索-弹出作品状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品审核-搜索-选择作品状态已审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品审核-搜索-选择作品状态未审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品审核-搜索-作品状态未通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品审核-搜索重置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品审核-搜索-弹出作品分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品审核-搜索-弹出作品分类-选择第一个分类动物世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品审核-搜索-点击搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品审核-不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品审核-点击弹出作品状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品分类-点击弹出作品分类选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.is-reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//form/div/div/div/div/span/span/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品审核-点击关闭作品状态选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'作品审核')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'作品分类')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.is-active .el-menu-item:nth-child(1) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'未通过')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item:nth-child(4) .el-textarea__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核作品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核原因-通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核原因-不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-input:nth-child(2) &gt; .el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过通过通过通过通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不通过不通过不通过不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'从资源库获取')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-button--success:nth-child(2) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第2个作品不通过，作品社区的作品消失，第2个作品名称不为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第1个作品通过，作品社区的作品消失，第1个作品名称为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第3个作品不通过，作品社区的作品消失，第3个作品名称不为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择第二个场景文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.list-item:nth-child(1) &gt; .list-item-title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.list-item:nth-child(2) &gt; .list-item-title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第2个作品不通过，我的在线作品页该作品消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div[2]/div/div[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.tabs-item:nth-child(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item:nth-child(4) .el-textarea__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第3个作品不通过，我的在线作品页该作品消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第1个作品通过，我的在线作品页第1个作品名称为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未通过</t>
-  </si>
-  <si>
-    <t>未通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-审核状态-第二个作品的编辑按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//tr[2]/td[5]/div/button[2]/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-table__row:nth-child(2) .el-button:nth-child(2) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-审核状态-编辑作品icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-审核状态-编辑作品介绍图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-审核状态-编辑作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-审核状态-编辑作品简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\monkey05.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-textarea__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-选择第一个场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-点击从资源库获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-输入作品简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-点击作品简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-点击输入作品介绍图，删除介绍图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-点击选择作品图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-输入作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-点击输入作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-创建作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-删除作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-编辑作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-编辑作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-复制作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-草稿页发布作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-复制的作品的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-保存为草稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item :nth-child(1) .el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">猴子5是一个俗名，灵长目中很多动物我们都称为猴。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第3个作品不通过，审核状态页的状态为未通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第2个作品不通过，审核状态页的状态为未通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第1个作品不通过，审核状态页的状态为已审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑审核状态页的第二个作品，保存为草稿，名称为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑审核状态页的第二个作品，点击发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.tabs-item:nth-child(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品/课程-我的草稿页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-我的在线作品页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-作品审核状态页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'发布到社区平台')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看审核状态页的再发布的第二个作品的状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子5只在那里坐着发</t>
+    <t>课程-编辑页发布-选择第三个场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list-item-title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-选择第二个场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章节名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节1名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节1介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情-点击第一章节，展开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情-点击第一章节第1课时的可试看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情-第一章节第1课时的场景文件名为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#el-collapse-head-3513 .chapter-header-title__label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div[2]/div/div/div/div/div/div/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'可试看')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#el-collapse-head-271 span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI教程.ppt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[2]/div[6]/div</t>
+  </si>
+  <si>
+    <t>.pay &gt; div:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.pay &gt; div:nth-child(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[2]/div[6]/div[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立刻结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章节介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章节第一课时场景文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章节第一课时课件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[5]/div/div/ul/li[3]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1825,7 +2262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1854,6 +2291,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1872,12 +2318,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1887,9 +2336,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2167,17 +2623,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="53.75" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="38.375" customWidth="1"/>
+    <col min="2" max="2" width="60.25" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2187,7 +2643,7 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -2201,8 +2657,8 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>88</v>
+      <c r="C2" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2215,8 +2671,8 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>94</v>
+      <c r="C3" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -2229,8 +2685,8 @@
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>93</v>
+      <c r="C4" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -2243,8 +2699,8 @@
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
-        <v>95</v>
+      <c r="C5" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2252,10 +2708,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>93</v>
+        <v>57</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2263,10 +2719,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2274,9 +2730,9 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2285,10 +2741,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>93</v>
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2296,10 +2752,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2307,10 +2763,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>63</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2318,10 +2774,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2329,9 +2785,9 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2340,10 +2796,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>91</v>
+        <v>56</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2351,10 +2807,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>228</v>
+        <v>65</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2362,10 +2818,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>228</v>
+        <v>66</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2373,9 +2829,9 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2384,15 +2840,15 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>228</v>
+        <v>68</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2400,10 +2856,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2411,10 +2867,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2422,10 +2878,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" t="s">
-        <v>120</v>
+        <v>135</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2433,10 +2889,10 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>246</v>
-      </c>
-      <c r="C33" t="s">
-        <v>245</v>
+        <v>238</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2444,10 +2900,10 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
-      </c>
-      <c r="C34" t="s">
-        <v>242</v>
+        <v>194</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2455,10 +2911,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>247</v>
-      </c>
-      <c r="C35" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2466,10 +2922,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>280</v>
-      </c>
-      <c r="C36" t="s">
-        <v>242</v>
+        <v>269</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2477,10 +2933,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>249</v>
-      </c>
-      <c r="C37" t="s">
-        <v>248</v>
+        <v>241</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2488,10 +2944,10 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>250</v>
-      </c>
-      <c r="C38" t="s">
-        <v>248</v>
+        <v>242</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2499,10 +2955,10 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>251</v>
-      </c>
-      <c r="C39" t="s">
-        <v>254</v>
+        <v>243</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2510,111 +2966,311 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>252</v>
-      </c>
-      <c r="C40" t="s">
-        <v>253</v>
+        <v>244</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>390</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
+        <v>376</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>388</v>
-      </c>
-      <c r="C48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>389</v>
-      </c>
-      <c r="C49" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>398</v>
-      </c>
-      <c r="C50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>394</v>
-      </c>
-      <c r="C51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>399</v>
-      </c>
-      <c r="C52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
+        <v>415</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>416</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>417</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>418</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>427</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>419</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>430</v>
       </c>
-      <c r="C53" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>431</v>
-      </c>
-      <c r="C54" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>432</v>
-      </c>
-      <c r="C55" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>433</v>
-      </c>
-      <c r="C56" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>442</v>
-      </c>
-      <c r="C57" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>434</v>
-      </c>
-      <c r="C58" t="s">
-        <v>444</v>
+      <c r="B64" t="s">
+        <v>491</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>551</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>500</v>
+      </c>
+      <c r="C66" s="3">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>552</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>553</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>503</v>
+      </c>
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>492</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>551</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>500</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>552</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>553</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>503</v>
+      </c>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>501</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>504</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>511</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>505</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>513</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>514</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>515</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>529</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>547</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>548</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>549</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -2628,8 +3284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2659,12 +3315,12 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -2672,7 +3328,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -2680,70 +3336,70 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E6" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F6" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G6" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E7" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F7" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G7" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="H7" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -2751,7 +3407,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -2759,26 +3415,26 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C10" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D10" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="C11" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -2789,18 +3445,18 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -2808,7 +3464,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -2816,15 +3472,15 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -2832,7 +3488,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -2840,43 +3496,43 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="C20" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="E20" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="C22" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="E22" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2884,7 +3540,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2902,109 +3558,109 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>391</v>
+        <v>528</v>
       </c>
       <c r="C26" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" t="s">
-        <v>55</v>
-      </c>
       <c r="E27" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D29" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
         <v>80</v>
-      </c>
-      <c r="C34" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>233</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -3012,603 +3668,603 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C39" t="s">
-        <v>234</v>
+        <v>489</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E44" t="s">
-        <v>277</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="B50" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D58" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" t="s">
         <v>140</v>
-      </c>
-      <c r="E63" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D64" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65" t="s">
         <v>164</v>
-      </c>
-      <c r="E65" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D66" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E68" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E69" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D70" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E72" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B73" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" t="s">
         <v>160</v>
-      </c>
-      <c r="C75" t="s">
-        <v>161</v>
-      </c>
-      <c r="E75" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" t="s">
+        <v>177</v>
+      </c>
+      <c r="E76" t="s">
         <v>178</v>
-      </c>
-      <c r="C76" t="s">
-        <v>179</v>
-      </c>
-      <c r="E76" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" t="s">
         <v>182</v>
-      </c>
-      <c r="C77" t="s">
-        <v>183</v>
-      </c>
-      <c r="E77" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C78" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E78" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E79" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B80" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B81" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E83" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E84" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E85" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E86" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C87" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E87" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D88" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D89" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C91" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C92" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>268</v>
-      </c>
-      <c r="D93" t="s">
-        <v>272</v>
+        <v>526</v>
+      </c>
+      <c r="B93" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D94" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D95" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C96" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C97" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C99" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="E99" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C100" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="D100" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C101" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C102" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C103" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D103" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -3620,10 +4276,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3634,99 +4290,181 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
       <c r="E1" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>506</v>
+      </c>
+      <c r="C16" t="s">
+        <v>508</v>
+      </c>
+      <c r="E16" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>522</v>
+      </c>
+      <c r="C17" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>521</v>
+      </c>
+      <c r="C18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>533</v>
+      </c>
+      <c r="C19" t="s">
+        <v>536</v>
+      </c>
+      <c r="E19" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>534</v>
+      </c>
+      <c r="C20" t="s">
+        <v>539</v>
+      </c>
+      <c r="E20" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>535</v>
+      </c>
+      <c r="B21" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>543</v>
+      </c>
+      <c r="C22" t="s">
+        <v>542</v>
+      </c>
+      <c r="E22" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>546</v>
+      </c>
+      <c r="C23" t="s">
+        <v>544</v>
+      </c>
+      <c r="E23" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -3737,10 +4475,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="C52" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3751,12 +4489,12 @@
     <col min="5" max="5" width="57.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3770,441 +4508,647 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>206</v>
       </c>
-      <c r="C3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>208</v>
       </c>
-      <c r="C4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>435</v>
+      </c>
+      <c r="E8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F8" t="s">
         <v>215</v>
       </c>
-      <c r="E6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="G8" t="s">
+        <v>437</v>
+      </c>
+      <c r="H8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="s">
         <v>217</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9" t="s">
         <v>218</v>
       </c>
-      <c r="E7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C12" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D12" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D13">
         <v>123456</v>
       </c>
       <c r="E13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C14" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C16" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E16" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E17" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C18" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E18" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C19" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E19" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C20" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E20" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C21" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E21" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C22" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E22" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E23" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C24" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E24" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C25" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E25" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C26" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E26" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C27" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C28" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E28" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C29" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E29" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C30" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E30" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C31" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E31" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C32" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="E32" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C33" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E33" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C34" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E34" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C35" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E35" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>358</v>
+      </c>
+      <c r="C36" t="s">
         <v>370</v>
       </c>
-      <c r="C36" t="s">
-        <v>382</v>
-      </c>
       <c r="E36" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C37" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E37" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C38" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E38" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C39" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E39" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C40" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D40" t="s">
-        <v>384</v>
+        <v>443</v>
       </c>
       <c r="E40" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>357</v>
+        <v>439</v>
       </c>
       <c r="C41" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E41" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C42" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D42" t="s">
-        <v>385</v>
+        <v>444</v>
       </c>
       <c r="E42" t="s">
-        <v>356</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>441</v>
+      </c>
+      <c r="C44" t="s">
+        <v>440</v>
+      </c>
+      <c r="D44" t="s">
+        <v>442</v>
+      </c>
+      <c r="E44" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>446</v>
+      </c>
+      <c r="C45" t="s">
+        <v>440</v>
+      </c>
+      <c r="D45" t="s">
+        <v>447</v>
+      </c>
+      <c r="E45" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>454</v>
+      </c>
+      <c r="C46" t="s">
+        <v>449</v>
+      </c>
+      <c r="D46" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>455</v>
+      </c>
+      <c r="C47" t="s">
+        <v>448</v>
+      </c>
+      <c r="D47" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>456</v>
+      </c>
+      <c r="C48" t="s">
+        <v>450</v>
+      </c>
+      <c r="D48" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>482</v>
+      </c>
+      <c r="C50" t="s">
+        <v>464</v>
+      </c>
+      <c r="E50" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>458</v>
+      </c>
+      <c r="E51" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>460</v>
+      </c>
+      <c r="E52" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>461</v>
+      </c>
+      <c r="E53" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>459</v>
+      </c>
+      <c r="C54" t="s">
+        <v>343</v>
+      </c>
+      <c r="E54" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>469</v>
+      </c>
+      <c r="C55" t="s">
+        <v>467</v>
+      </c>
+      <c r="E55" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>470</v>
+      </c>
+      <c r="C58" t="s">
+        <v>471</v>
+      </c>
+      <c r="E58" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>476</v>
+      </c>
+      <c r="C59" t="s">
+        <v>473</v>
+      </c>
+      <c r="E59" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>477</v>
+      </c>
+      <c r="C60" t="s">
+        <v>475</v>
+      </c>
+      <c r="D60">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E60" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>478</v>
+      </c>
+      <c r="C61" t="s">
+        <v>480</v>
+      </c>
+      <c r="D61">
+        <v>0.01</v>
+      </c>
+      <c r="E61" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>487</v>
+      </c>
+      <c r="C62" t="s">
+        <v>485</v>
+      </c>
+      <c r="E62" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>

--- a/cases/case.xlsx
+++ b/cases/case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -883,10 +883,6 @@
   </si>
   <si>
     <t>//span[contains(.,'上下架管理')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核点击审核第一个作品按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1791,470 +1787,474 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>//td[10]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item:nth-child(5) .el-textarea__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-审核原因填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核通过课程审核通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品通过作品通过作品通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品不通过作品不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[5]/div/div/textarea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-审核不通过原因填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核不通过课程审核不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-radio:nth-child(2) .el-radio__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-radio:nth-child(1) .el-radio__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-radio:nth-child(3) .el-radio__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//label/span/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//label[2]/span/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//label[3]/span/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-课程难度初级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-课程难度中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-课程难度高级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-课程分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程分类-动物世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程分类-点击关闭作品分类选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程分类-自然科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程分类-多彩的生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[4]/div/div/ul/li/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[2]/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item__content .el-input:nth-child(2) .el-select__caret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程状态-已审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程状态-未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-select--small:nth-child(1) &gt; .el-input:nth-child(1) .el-select__caret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[3]/div/div/div/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程状态-点击弹出课程状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程状态-保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-col &gt; .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'保存')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button--default:nth-child(1) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'取消')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item:nth-child(7) .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程状态-取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程原价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程现价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[7]/div/div/div/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is-required .el-input-number .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[8]/div/div/div/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程分类-点击弹出课程分类选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[2]/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[4]/div/div/ul/li[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-tag:nth-child(1) &gt; .el-tag__close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-删除分类-自然科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\banma1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\banma1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#kecheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第二个作品（斑马3）通过，原价19.90，定价0.01，简介斑马3简介，难度中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第一个作品（斑马4）通过，原价0，定价0.00，简介斑马4简介，难度初级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马4简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第一个作品（斑马2）不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情-时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[2]/div[3]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.time &gt; div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime.now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页课程简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页现价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页存在加入购物车按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页存在结算按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页存在试看按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#tab-chapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#tab-intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情-课程章节页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情-课程介绍页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene-title el-popover__reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-编辑页发布-选择第三个场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list-item-title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-选择第二个场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章节名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节1名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节1介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情-点击第一章节，展开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情-点击第一章节第1课时的可试看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情-第一章节第1课时的场景文件名为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#el-collapse-head-3513 .chapter-header-title__label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div[2]/div/div/div/div/div/div/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'可试看')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#el-collapse-head-271 span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI教程.ppt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[2]/div[6]/div</t>
+  </si>
+  <si>
+    <t>.pay &gt; div:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.pay &gt; div:nth-child(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[2]/div[6]/div[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立刻结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章节介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章节第一课时场景文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章节第一课时课件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[5]/div/div/ul/li[3]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>.el-table__row:nth-child(1) &gt; .el-table_1_column_10 span</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//td[10]/div/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item:nth-child(5) .el-textarea__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核-审核原因填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核通过课程审核通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品通过作品通过作品通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品不通过作品不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[5]/div/div/textarea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核-审核不通过原因填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核不通过课程审核不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-radio:nth-child(2) .el-radio__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-radio:nth-child(1) .el-radio__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-radio:nth-child(3) .el-radio__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//label/span/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//label[2]/span/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//label[3]/span/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核-课程难度初级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核-课程难度中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核-课程难度高级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核-课程分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程分类-动物世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程分类-点击关闭作品分类选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程分类-自然科学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程分类-多彩的生物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[4]/div/div/ul/li/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div[2]/span/span/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item__content .el-input:nth-child(2) .el-select__caret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程状态-已审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程状态-未通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-select--small:nth-child(1) &gt; .el-input:nth-child(1) .el-select__caret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[3]/div/div/div/span/span/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程状态-点击弹出课程状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程状态-保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-col &gt; .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'保存')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-button--default:nth-child(1) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'取消')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item:nth-child(7) .el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程状态-取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程原价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程现价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[7]/div/div/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.is-required .el-input-number .el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[8]/div/div/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程分类-点击弹出课程分类选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div[2]/span/span/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[4]/div/div/ul/li[2]/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-tag:nth-child(1) &gt; .el-tag__close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div/span/span/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核-删除分类-自然科学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\banma1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\banma1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#kecheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第二个作品（斑马3）通过，原价19.90，定价0.01，简介斑马3简介，难度中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第一个作品（斑马4）通过，原价0，定价0.00，简介斑马4简介，难度初级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马4简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>￥0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第一个作品（斑马2）不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3详情页名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3详情页作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情-时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div[2]/div[3]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.time &gt; div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime.now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3详情页难度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3详情页时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3详情页课程简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3详情页现价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3详情页存在加入购物车按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3详情页存在结算按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3详情页存在试看按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#tab-chapter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#tab-intro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情-课程章节页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情-课程介绍页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scene-title el-popover__reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二章名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-编辑页发布-选择第三个场景文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list-item-title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-选择第二个场景文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章节名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节1名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节1介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情-点击第一章节，展开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情-点击第一章节第1课时的可试看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情-第一章节第1课时的场景文件名为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#el-collapse-head-3513 .chapter-header-title__label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div[2]/div/div/div/div/div/div/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'可试看')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#el-collapse-head-271 span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI教程.ppt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div[2]/div[6]/div</t>
-  </si>
-  <si>
-    <t>.pay &gt; div:nth-child(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.pay &gt; div:nth-child(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div[2]/div[6]/div[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立刻结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章节介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章节第一课时场景文件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章节第一课时课件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[5]/div/div/ul/li[3]/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>难度</t>
+    <t>课程审核点击审核第一个作品按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2625,8 +2625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2810,7 +2810,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2821,7 +2821,7 @@
         <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2843,7 +2843,7 @@
         <v>68</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2889,10 +2889,10 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2903,7 +2903,7 @@
         <v>194</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2911,10 +2911,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2922,10 +2922,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2933,10 +2933,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2944,10 +2944,10 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2955,10 +2955,10 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2966,20 +2966,20 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>88</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>91</v>
@@ -2995,15 +2995,15 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>88</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>95</v>
@@ -3019,83 +3019,83 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
+        <v>426</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B64" t="s">
+        <v>489</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C66" s="3">
         <v>19.989999999999998</v>
@@ -3103,46 +3103,46 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C69" s="4"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
+        <v>490</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C72" s="3">
         <v>0</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C73" s="3">
         <v>0</v>
@@ -3158,119 +3158,119 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C75" s="4"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3336,70 +3336,70 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" t="s">
         <v>276</v>
       </c>
-      <c r="E6" t="s">
-        <v>277</v>
-      </c>
       <c r="F6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G6" t="s">
         <v>272</v>
-      </c>
-      <c r="G6" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" t="s">
         <v>281</v>
       </c>
-      <c r="C7" t="s">
-        <v>282</v>
-      </c>
       <c r="D7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" t="s">
         <v>276</v>
       </c>
-      <c r="E7" t="s">
-        <v>277</v>
-      </c>
       <c r="F7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -3415,26 +3415,26 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D16" t="s">
         <v>88</v>
@@ -3480,7 +3480,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D19" t="s">
         <v>89</v>
@@ -3504,35 +3504,35 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3558,10 +3558,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -3572,7 +3572,7 @@
         <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3585,13 +3585,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D29" t="s">
-        <v>222</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3655,7 +3655,7 @@
         <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -3668,10 +3668,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -3701,7 +3701,7 @@
         <v>143</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -3720,10 +3720,10 @@
         <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E44" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3734,7 +3734,7 @@
         <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E45" t="s">
         <v>117</v>
@@ -3775,7 +3775,7 @@
         <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3783,7 +3783,7 @@
         <v>112</v>
       </c>
       <c r="B50" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3802,7 +3802,7 @@
         <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -3853,7 +3853,7 @@
         <v>132</v>
       </c>
       <c r="D58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -3861,7 +3861,7 @@
         <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3869,18 +3869,18 @@
         <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -3910,7 +3910,7 @@
         <v>142</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3929,7 +3929,7 @@
         <v>145</v>
       </c>
       <c r="D66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3937,7 +3937,7 @@
         <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3973,7 +3973,7 @@
         <v>106</v>
       </c>
       <c r="D70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -4011,7 +4011,7 @@
         <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -4127,144 +4127,144 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C87" t="s">
+        <v>247</v>
+      </c>
+      <c r="E87" t="s">
         <v>248</v>
-      </c>
-      <c r="E87" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C91" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C92" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B93" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D94" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C96" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C97" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>387</v>
+      </c>
+      <c r="C99" t="s">
+        <v>389</v>
+      </c>
+      <c r="E99" t="s">
         <v>388</v>
-      </c>
-      <c r="C99" t="s">
-        <v>390</v>
-      </c>
-      <c r="E99" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C100" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D100" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C101" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C102" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C103" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D103" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -4293,7 +4293,7 @@
         <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -4302,7 +4302,7 @@
         <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4320,7 +4320,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4390,81 +4390,81 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>504</v>
+      </c>
+      <c r="C16" t="s">
         <v>506</v>
       </c>
-      <c r="C16" t="s">
-        <v>508</v>
-      </c>
       <c r="E16" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C18" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C19" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E19" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C20" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C22" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E22" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C23" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E23" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -4477,8 +4477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="C52" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4557,598 +4557,598 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E7" t="s">
         <v>433</v>
-      </c>
-      <c r="C7" t="s">
-        <v>432</v>
-      </c>
-      <c r="E7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E8" t="s">
         <v>435</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>553</v>
+      </c>
+      <c r="G8" t="s">
+        <v>552</v>
+      </c>
+      <c r="H8" t="s">
         <v>436</v>
-      </c>
-      <c r="F8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G8" t="s">
-        <v>437</v>
-      </c>
-      <c r="H8" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" t="s">
         <v>217</v>
-      </c>
-      <c r="E9" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D13">
         <v>123456</v>
       </c>
       <c r="E13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" t="s">
         <v>289</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>290</v>
-      </c>
-      <c r="E14" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C17" t="s">
         <v>210</v>
       </c>
       <c r="E17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" t="s">
         <v>297</v>
-      </c>
-      <c r="E18" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" t="s">
         <v>299</v>
-      </c>
-      <c r="E19" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20" t="s">
         <v>301</v>
-      </c>
-      <c r="E20" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C21" t="s">
+        <v>305</v>
+      </c>
+      <c r="E21" t="s">
         <v>306</v>
-      </c>
-      <c r="E21" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C23" t="s">
+        <v>302</v>
+      </c>
+      <c r="E23" t="s">
         <v>303</v>
-      </c>
-      <c r="E23" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C24" t="s">
+        <v>314</v>
+      </c>
+      <c r="E24" t="s">
         <v>315</v>
-      </c>
-      <c r="E24" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C25" t="s">
+        <v>316</v>
+      </c>
+      <c r="E25" t="s">
         <v>317</v>
-      </c>
-      <c r="E25" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C26" t="s">
+        <v>318</v>
+      </c>
+      <c r="E26" t="s">
         <v>319</v>
-      </c>
-      <c r="E26" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C28" t="s">
+        <v>321</v>
+      </c>
+      <c r="E28" t="s">
         <v>322</v>
-      </c>
-      <c r="E28" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C31" t="s">
+        <v>327</v>
+      </c>
+      <c r="E31" t="s">
         <v>328</v>
-      </c>
-      <c r="E31" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C34" t="s">
+        <v>333</v>
+      </c>
+      <c r="E34" t="s">
         <v>334</v>
-      </c>
-      <c r="E34" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C35" t="s">
+        <v>358</v>
+      </c>
+      <c r="E35" t="s">
         <v>359</v>
-      </c>
-      <c r="E35" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C36" t="s">
+        <v>369</v>
+      </c>
+      <c r="E36" t="s">
         <v>370</v>
-      </c>
-      <c r="E36" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E37" t="s">
         <v>338</v>
-      </c>
-      <c r="E37" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C38" t="s">
+        <v>339</v>
+      </c>
+      <c r="E38" t="s">
         <v>340</v>
-      </c>
-      <c r="E38" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>341</v>
+      </c>
+      <c r="C39" t="s">
         <v>342</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>343</v>
-      </c>
-      <c r="E39" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C40" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D40" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D42" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C44" t="s">
+        <v>438</v>
+      </c>
+      <c r="D44" t="s">
         <v>440</v>
       </c>
-      <c r="D44" t="s">
-        <v>442</v>
-      </c>
       <c r="E44" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C45" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D45" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E45" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C46" t="s">
+        <v>447</v>
+      </c>
+      <c r="D46" t="s">
         <v>449</v>
-      </c>
-      <c r="D46" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C47" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D47" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C48" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D48" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C50" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E50" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E51" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E52" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E53" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E54" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C55" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E55" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>468</v>
+      </c>
+      <c r="C58" t="s">
+        <v>469</v>
+      </c>
+      <c r="E58" t="s">
         <v>470</v>
-      </c>
-      <c r="C58" t="s">
-        <v>471</v>
-      </c>
-      <c r="E58" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C59" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E59" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C60" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D60">
         <v>19.899999999999999</v>
       </c>
       <c r="E60" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>476</v>
+      </c>
+      <c r="C61" t="s">
         <v>478</v>
-      </c>
-      <c r="C61" t="s">
-        <v>480</v>
       </c>
       <c r="D61">
         <v>0.01</v>
       </c>
       <c r="E61" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C62" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E62" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/cases/case.xlsx
+++ b/cases/case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="560">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -803,22 +803,6 @@
   </si>
   <si>
     <t>我的草稿页发布课程，我的在草稿页第一个课程的名称不为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态-全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态-待审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态-已通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态-未通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1615,646 +1599,686 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>E:\zhuqueAutomation\photos\monkey05.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-textarea__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-选择第一个场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-点击从资源库获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-输入作品简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-点击作品简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-点击输入作品介绍图，删除介绍图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-点击选择作品图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-输入作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-点击输入作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-创建作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-删除作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-编辑作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-编辑作品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-复制作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-草稿页发布作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-复制的作品的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-保存为草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item :nth-child(1) .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">猴子5是一个俗名，灵长目中很多动物我们都称为猴。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第3个作品不通过，审核状态页的状态为未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第2个作品不通过，审核状态页的状态为未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第1个作品不通过，审核状态页的状态为已审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑审核状态页的第二个作品，保存为草稿，名称为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑审核状态页的第二个作品，点击发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.tabs-item:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品/课程-我的草稿页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-我的在线作品页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-作品审核状态页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'发布到社区平台')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看审核状态页的再发布的第二个作品的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子5只在那里坐着发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核页审核不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(3) &gt; .el-table_1_column_10 span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核点击审核第三个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//tr[3]/td[10]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(2) &gt; .el-table_1_column_10 span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//tr[2]/td[10]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//td[10]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item:nth-child(5) .el-textarea__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-审核原因填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核通过课程审核通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品通过作品通过作品通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品不通过作品不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[5]/div/div/textarea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-审核不通过原因填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核不通过课程审核不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-radio:nth-child(2) .el-radio__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-radio:nth-child(1) .el-radio__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-radio:nth-child(3) .el-radio__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//label/span/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//label[2]/span/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//label[3]/span/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-课程难度初级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-课程难度中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-课程难度高级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-课程分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程分类-动物世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程分类-点击关闭作品分类选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程分类-自然科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程分类-多彩的生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[4]/div/div/ul/li/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[2]/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item__content .el-input:nth-child(2) .el-select__caret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程状态-已审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程状态-未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-select--small:nth-child(1) &gt; .el-input:nth-child(1) .el-select__caret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[3]/div/div/div/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程状态-点击弹出课程状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程状态-保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-col &gt; .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'保存')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-button--default:nth-child(1) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'取消')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-form-item:nth-child(7) .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程状态-取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程原价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程现价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[7]/div/div/div/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is-required .el-input-number .el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[8]/div/div/div/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程分类-点击弹出课程分类选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[2]/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[4]/div/div/ul/li[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-tag:nth-child(1) &gt; .el-tag__close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div/span/span/i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核-删除分类-自然科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\banma1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\banma1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#kecheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第二个作品（斑马3）通过，原价19.90，定价0.01，简介斑马3简介，难度中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第一个作品（斑马4）通过，原价0，定价0.00，简介斑马4简介，难度初级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马4简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核第一个作品（斑马2）不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情-时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[2]/div[3]/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.time &gt; div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime.now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页课程简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页现价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页存在加入购物车按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页存在结算按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马3详情页存在试看按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#tab-chapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#tab-intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情-课程章节页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情-课程介绍页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene-title el-popover__reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-编辑页发布-选择第三个场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list-item-title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-选择第二个场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章节名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节1名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节1介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情-点击第一章节，展开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情-点击第一章节第1课时的可试看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情-第一章节第1课时的场景文件名为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#el-collapse-head-3513 .chapter-header-title__label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div[2]/div/div/div/div/div/div/div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(.,'可试看')]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#el-collapse-head-271 span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[2]/div[6]/div</t>
+  </si>
+  <si>
+    <t>.pay &gt; div:nth-child(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.pay &gt; div:nth-child(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[2]/div[6]/div[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立刻结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章节介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章节第一课时场景文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章节第一课时课件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[5]/div/div/ul/li[3]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(1) &gt; .el-table_1_column_10 span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核点击审核第一个作品按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-collapse-item__arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材.ppt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jirou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型信息-文件大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.82MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型信息-二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#el-popover-471 img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>作品-审核状态-编辑作品简介</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E:\zhuqueAutomation\photos\monkey05.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-textarea__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-选择第一个场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-点击从资源库获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-输入作品简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-点击作品简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-点击输入作品介绍图，删除介绍图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-点击选择作品图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-输入作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-点击输入作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-创建作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-删除作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-编辑作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-编辑作品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-复制作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-草稿页发布作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-复制的作品的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-保存为草稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item :nth-child(1) .el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">猴子5是一个俗名，灵长目中很多动物我们都称为猴。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第3个作品不通过，审核状态页的状态为未通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第2个作品不通过，审核状态页的状态为未通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第1个作品不通过，审核状态页的状态为已审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑审核状态页的第二个作品，保存为草稿，名称为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑审核状态页的第二个作品，点击发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.tabs-item:nth-child(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品/课程-我的草稿页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-我的在线作品页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-作品审核状态页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'发布到社区平台')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看审核状态页的再发布的第二个作品的状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子5只在那里坐着发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核页审核不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-table__row:nth-child(3) &gt; .el-table_1_column_10 span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核点击审核第三个作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//tr[3]/td[10]/div/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-table__row:nth-child(2) &gt; .el-table_1_column_10 span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//tr[2]/td[10]/div/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//td[10]/div/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item:nth-child(5) .el-textarea__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核-审核原因填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核通过课程审核通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品通过作品通过作品通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品不通过作品不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[5]/div/div/textarea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核-审核不通过原因填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核不通过课程审核不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-radio:nth-child(2) .el-radio__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-radio:nth-child(1) .el-radio__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-radio:nth-child(3) .el-radio__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//label/span/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//label[2]/span/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//label[3]/span/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核-课程难度初级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核-课程难度中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核-课程难度高级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核-课程分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程分类-动物世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程分类-点击关闭作品分类选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程分类-自然科学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程分类-多彩的生物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[4]/div/div/ul/li/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div[2]/span/span/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item__content .el-input:nth-child(2) .el-select__caret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程状态-已审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程状态-未通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-select--small:nth-child(1) &gt; .el-input:nth-child(1) .el-select__caret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[3]/div/div/div/span/span/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程状态-点击弹出课程状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程状态-保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-col &gt; .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'保存')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-button--default:nth-child(1) &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'取消')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-form-item:nth-child(7) .el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程状态-取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程原价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程现价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[7]/div/div/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.is-required .el-input-number .el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[8]/div/div/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程分类-点击弹出课程分类选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div[2]/span/span/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[4]/div/div/ul/li[2]/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-tag:nth-child(1) &gt; .el-tag__close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div/span/span/i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核-删除分类-自然科学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\banma1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\banma1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#kecheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第二个作品（斑马3）通过，原价19.90，定价0.01，简介斑马3简介，难度中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第一个作品（斑马4）通过，原价0，定价0.00，简介斑马4简介，难度初级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马4简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>￥0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核第一个作品（斑马2）不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3详情页名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3详情页作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情-时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div[2]/div[3]/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.time &gt; div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime.now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3详情页难度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3详情页时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3详情页课程简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3详情页现价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3详情页存在加入购物车按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3详情页存在结算按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马3详情页存在试看按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#tab-chapter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#tab-intro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情-课程章节页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情-课程介绍页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scene-title el-popover__reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二章名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-编辑页发布-选择第三个场景文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list-item-title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-选择第二个场景文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章节名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节1名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节1介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情-点击第一章节，展开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情-点击第一章节第1课时的可试看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程详情-第一章节第1课时的场景文件名为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#el-collapse-head-3513 .chapter-header-title__label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div[2]/div/div/div/div/div/div/div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(.,'可试看')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#el-collapse-head-271 span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI教程.ppt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div[2]/div[6]/div</t>
-  </si>
-  <si>
-    <t>.pay &gt; div:nth-child(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.pay &gt; div:nth-child(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div[2]/div[6]/div[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立刻结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章节介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章节第一课时场景文件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章节第一课时课件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[5]/div/div/ul/li[3]/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>难度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-table__row:nth-child(1) &gt; .el-table_1_column_10 span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核点击审核第一个作品按钮</t>
+    <t>课程-审核状态-未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-审核状态-已通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-审核状态-待审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-审核状态-全部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2623,10 +2647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2810,7 +2834,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2821,7 +2845,7 @@
         <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2843,7 +2867,7 @@
         <v>68</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2889,10 +2913,10 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2903,7 +2927,7 @@
         <v>194</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2911,10 +2935,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2922,10 +2946,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2933,10 +2957,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2944,10 +2968,10 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2955,10 +2979,10 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2966,20 +2990,20 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>88</v>
@@ -2987,7 +3011,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>91</v>
@@ -2995,15 +3019,15 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>88</v>
@@ -3011,7 +3035,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>95</v>
@@ -3019,83 +3043,83 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B64" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C66" s="3">
         <v>19.989999999999998</v>
@@ -3103,46 +3127,46 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C69" s="4"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C72" s="3">
         <v>0</v>
@@ -3150,127 +3174,143 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>550</v>
-      </c>
-      <c r="C73" s="3">
-        <v>0</v>
+        <v>543</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C75" s="4"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>538</v>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>551</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>553</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -3284,8 +3324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3320,7 +3360,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -3328,7 +3368,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3336,70 +3376,70 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H7" t="s">
         <v>274</v>
-      </c>
-      <c r="H7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -3407,7 +3447,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -3415,26 +3455,26 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -3456,7 +3496,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -3464,7 +3504,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -3472,7 +3512,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D16" t="s">
         <v>88</v>
@@ -3480,7 +3520,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -3488,7 +3528,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -3496,7 +3536,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D19" t="s">
         <v>89</v>
@@ -3504,35 +3544,35 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C20" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C22" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E22" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3558,10 +3598,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C26" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -3572,7 +3612,7 @@
         <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3585,13 +3625,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D29" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3655,7 +3695,7 @@
         <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -3668,10 +3708,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C39" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -3701,7 +3741,7 @@
         <v>143</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -3720,10 +3760,10 @@
         <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E44" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3734,7 +3774,7 @@
         <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E45" t="s">
         <v>117</v>
@@ -3775,7 +3815,7 @@
         <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3783,7 +3823,7 @@
         <v>112</v>
       </c>
       <c r="B50" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3802,7 +3842,7 @@
         <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -3853,7 +3893,7 @@
         <v>132</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -3861,7 +3901,7 @@
         <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3869,18 +3909,18 @@
         <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -3910,7 +3950,7 @@
         <v>142</v>
       </c>
       <c r="D64" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3929,7 +3969,7 @@
         <v>145</v>
       </c>
       <c r="D66" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3937,7 +3977,7 @@
         <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3973,7 +4013,7 @@
         <v>106</v>
       </c>
       <c r="D70" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -4011,7 +4051,7 @@
         <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -4095,176 +4135,176 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>559</v>
+      </c>
+      <c r="E83" t="s">
         <v>195</v>
-      </c>
-      <c r="E83" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>196</v>
+        <v>558</v>
       </c>
       <c r="E84" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>197</v>
+        <v>557</v>
       </c>
       <c r="E85" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>198</v>
+        <v>556</v>
       </c>
       <c r="E86" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C87" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E87" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D88" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D89" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C91" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C92" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B93" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D94" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D95" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C96" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C97" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C99" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E99" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C100" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D100" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C101" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C102" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>393</v>
+        <v>555</v>
       </c>
       <c r="C103" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D103" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -4279,7 +4319,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4293,7 +4333,7 @@
         <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -4302,7 +4342,7 @@
         <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4320,7 +4360,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4390,81 +4430,84 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C16" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E16" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C17" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C18" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>531</v>
+        <v>525</v>
+      </c>
+      <c r="B19" t="s">
+        <v>548</v>
       </c>
       <c r="C19" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="E19" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C20" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E20" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B21" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C22" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E22" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C23" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="E23" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -4477,8 +4520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4513,642 +4556,642 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" t="s">
         <v>207</v>
-      </c>
-      <c r="C5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E5" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E8" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F8" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="G8" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H8" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D12" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D13">
         <v>123456</v>
       </c>
       <c r="E13" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C14" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E14" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C15" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E15" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C16" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E16" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E17" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C18" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C19" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E19" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C20" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E20" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C21" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E21" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C22" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C23" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E23" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C24" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E24" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C25" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E25" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C26" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E26" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C27" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C28" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E28" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C29" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E29" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C30" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E30" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C31" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E31" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C32" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E32" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C33" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E33" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" t="s">
+        <v>329</v>
+      </c>
+      <c r="E34" t="s">
         <v>330</v>
-      </c>
-      <c r="C34" t="s">
-        <v>333</v>
-      </c>
-      <c r="E34" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C35" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E35" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C36" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E36" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C37" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E37" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>332</v>
+      </c>
+      <c r="C38" t="s">
+        <v>335</v>
+      </c>
+      <c r="E38" t="s">
         <v>336</v>
-      </c>
-      <c r="C38" t="s">
-        <v>339</v>
-      </c>
-      <c r="E38" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C39" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E39" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C40" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D40" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E40" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C41" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E41" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C42" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D42" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E42" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C44" t="s">
+        <v>433</v>
+      </c>
+      <c r="D44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E44" t="s">
         <v>438</v>
-      </c>
-      <c r="D44" t="s">
-        <v>440</v>
-      </c>
-      <c r="E44" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C45" t="s">
+        <v>433</v>
+      </c>
+      <c r="D45" t="s">
+        <v>440</v>
+      </c>
+      <c r="E45" t="s">
         <v>438</v>
-      </c>
-      <c r="D45" t="s">
-        <v>445</v>
-      </c>
-      <c r="E45" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C46" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D46" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C47" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D47" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C48" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D48" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C50" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E50" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E51" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E52" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E53" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C54" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E54" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C55" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E55" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C58" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E58" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C59" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E59" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C60" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D60">
         <v>19.899999999999999</v>
       </c>
       <c r="E60" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C61" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D61">
         <v>0.01</v>
       </c>
       <c r="E61" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C62" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E62" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/cases/case.xlsx
+++ b/cases/case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="605">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,10 +534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.addBlue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>.addSelected</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -618,10 +614,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击编辑第一课时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击从资源库获取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -674,10 +666,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#el-collapse-head-7785 .el-button--primary &gt; span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击编辑更改章节1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -814,10 +802,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//div[@id='tab-fourth']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//div[@id='tab-second']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -870,10 +854,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>课程审核点击审核第二个作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>.el-select--small:nth-child(1) &gt; .el-input:nth-child(1) .el-select__caret</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -912,12 +892,6 @@
   <si>
     <t>//span[contains(.,'从资源库获取')]</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\AI教程#!.ppt</t>
-  </si>
-  <si>
-    <t>E:\zhuqueAutomation\photos\素材.ppt</t>
   </si>
   <si>
     <t>课时1标题</t>
@@ -1707,10 +1681,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作品/课程-我的草稿页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>作品-我的在线作品页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1751,10 +1721,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>课程审核点击审核第三个作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//tr[3]/td[10]/div/button/span</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2111,10 +2077,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scene-title el-popover__reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第二章名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2174,111 +2136,331 @@
     <t>//div[2]/div/div/div[2]/div[6]/div</t>
   </si>
   <si>
+    <t>加入购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.pay &gt; div:nth-child(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[2]/div/div/div[2]/div[6]/div[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立刻结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章节介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章节第一课时场景文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章节第一课时课件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[5]/div/div/ul/li[3]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(1) &gt; .el-table_1_column_10 span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-collapse-item__arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材.ppt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jirou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型信息-文件大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.82MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型信息-二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#el-popover-471 img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-审核状态-编辑作品简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-审核状态-未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-审核状态-已通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-审核状态-待审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-审核状态-全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(3) .el-button:nth-child(2) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//tr[3]/td[5]/div/button[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(2) .el-button:nth-child(2) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//tr[2]/td[5]/div/button[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(3) .el-button:nth-child(1) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(1) .el-button--danger &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-审核状态页，点击删除第一个课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-审核状态页，编辑第三个课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-审核状态页，编辑第二个课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-审核状态页，编辑第一个课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(1) .el-button:nth-child(1) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次确认时取消删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次确认是删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//button[@type='button'])[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-审核状态页，查看第三个课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-审核状态页，查看第二个课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程-审核状态页，查看第一个课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(2) .el-button:nth-child(1) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(//button[@type='button'])[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核页编辑课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核页编辑课程icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\斑马5.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\斑马5.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\素材.ppt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\素材1#!.ppt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\zhuqueAutomation\photos\素材3@#￥.pptx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核页编辑课程章节名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核页编辑课程介绍图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核页编辑课程标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核页编辑课程场景文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马22章节1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马22课程标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑第一课时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核页编辑课程章节介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马22章节1介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态页-编辑不通过的课程并保存到草稿 ，我的草稿页第一个草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态页-编辑不通过的课程并发布 ，未审核页的第一个课程名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品-我的草稿页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-table__row:nth-child(1) .el-button:nth-child(2) &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//tr[1]/td[5]/div/button[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='tab-fourth']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[3]/div/button/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.el-col &gt; .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核页编辑课程课件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核页编辑课程，点击保存到草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.addBlue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabs-item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#el-collapse-head-7785 .el-button--primary &gt; span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-button--primary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核点击审核第三个课程按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核点击审核第二个课程按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程审核点击审核第一个课程按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态页-编辑不通过的课程并发布 ，课程中心的第一个课程名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>.pay &gt; div:nth-child(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加入购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.pay &gt; div:nth-child(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[2]/div/div/div[2]/div[6]/div[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立刻结算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章节介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章节第一课时场景文件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章节第一课时课件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[5]/div/div/ul/li[3]/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>难度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.el-table__row:nth-child(1) &gt; .el-table_1_column_10 span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程审核点击审核第一个作品按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-collapse-item__arrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材.ppt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jirou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型信息-文件大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.82MB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型信息-二维码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#el-popover-471 img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品-审核状态-编辑作品简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-审核状态-未通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-审核状态-已通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-审核状态-待审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程-审核状态-全部</t>
+    <t>scene-title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2649,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2834,7 +3016,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2845,7 +3027,7 @@
         <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2867,7 +3049,7 @@
         <v>68</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2902,7 +3084,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>118</v>
@@ -2913,10 +3095,10 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2924,10 +3106,10 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2935,10 +3117,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2946,10 +3128,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2957,10 +3139,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2968,10 +3150,10 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2979,10 +3161,10 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2990,20 +3172,53 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>585</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>586</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>602</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>88</v>
@@ -3011,7 +3226,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>91</v>
@@ -3019,15 +3234,15 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>88</v>
@@ -3035,7 +3250,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>95</v>
@@ -3043,83 +3258,83 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B64" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C66" s="3">
         <v>19.989999999999998</v>
@@ -3127,46 +3342,46 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C69" s="4"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C72" s="3">
         <v>0</v>
@@ -3174,143 +3389,143 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C75" s="4"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -3322,10 +3537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3360,7 +3575,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -3368,7 +3583,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3376,70 +3591,70 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F6" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H7" t="s">
         <v>267</v>
-      </c>
-      <c r="G7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -3447,7 +3662,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -3455,26 +3670,26 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C10" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D10" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C11" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -3485,18 +3700,18 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -3504,7 +3719,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -3512,7 +3727,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D16" t="s">
         <v>88</v>
@@ -3520,7 +3735,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -3528,7 +3743,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -3536,7 +3751,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D19" t="s">
         <v>89</v>
@@ -3544,35 +3759,35 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>416</v>
+        <v>587</v>
       </c>
       <c r="C20" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C22" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E22" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3598,10 +3813,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C26" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -3612,7 +3827,7 @@
         <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3625,13 +3840,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3695,7 +3910,7 @@
         <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -3708,10 +3923,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C39" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -3722,7 +3937,7 @@
         <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -3730,18 +3945,18 @@
         <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -3760,10 +3975,10 @@
         <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E44" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3774,7 +3989,7 @@
         <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E45" t="s">
         <v>117</v>
@@ -3804,18 +4019,18 @@
         <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
         <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3823,7 +4038,7 @@
         <v>112</v>
       </c>
       <c r="B50" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3831,10 +4046,10 @@
         <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -3842,7 +4057,7 @@
         <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>222</v>
+        <v>573</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -3865,8 +4080,11 @@
       <c r="A55" t="s">
         <v>125</v>
       </c>
+      <c r="B55" t="s">
+        <v>596</v>
+      </c>
       <c r="C55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -3874,437 +4092,593 @@
         <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>595</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D58" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" t="s">
         <v>136</v>
-      </c>
-      <c r="C62" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" t="s">
         <v>139</v>
-      </c>
-      <c r="C63" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="B65" t="s">
+        <v>598</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>597</v>
       </c>
       <c r="E65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D66" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D67" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E68" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>581</v>
       </c>
       <c r="C69" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E69" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
         <v>106</v>
       </c>
       <c r="D70" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C73" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>572</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
+      <c r="E75" t="s">
         <v>158</v>
-      </c>
-      <c r="C75" t="s">
-        <v>159</v>
-      </c>
-      <c r="E75" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C76" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E76" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C77" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E77" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E78" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C79" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E79" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B82" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="E83" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="E84" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="E85" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="E86" t="s">
-        <v>197</v>
+        <v>590</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C87" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E87" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D88" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D89" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>242</v>
+      </c>
+      <c r="C91" t="s">
         <v>249</v>
-      </c>
-      <c r="C91" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" t="s">
         <v>250</v>
-      </c>
-      <c r="C92" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B93" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D94" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D95" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C96" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C97" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C99" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E99" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C100" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D100" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C101" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C102" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>543</v>
+      </c>
+      <c r="C103" t="s">
+        <v>383</v>
+      </c>
+      <c r="D103" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>555</v>
       </c>
-      <c r="C103" t="s">
-        <v>390</v>
-      </c>
-      <c r="D103" t="s">
-        <v>408</v>
+      <c r="C104" t="s">
+        <v>548</v>
+      </c>
+      <c r="E104" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>556</v>
+      </c>
+      <c r="C105" t="s">
+        <v>550</v>
+      </c>
+      <c r="E105" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>557</v>
+      </c>
+      <c r="C106" t="s">
+        <v>588</v>
+      </c>
+      <c r="E106" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>562</v>
+      </c>
+      <c r="C107" t="s">
+        <v>552</v>
+      </c>
+      <c r="E107" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>563</v>
+      </c>
+      <c r="C108" t="s">
+        <v>565</v>
+      </c>
+      <c r="E108" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>564</v>
+      </c>
+      <c r="C109" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>554</v>
+      </c>
+      <c r="C110" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>568</v>
+      </c>
+      <c r="D113" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>569</v>
+      </c>
+      <c r="C114" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>576</v>
+      </c>
+      <c r="C115" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>575</v>
+      </c>
+      <c r="D116" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>582</v>
+      </c>
+      <c r="D117" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>577</v>
+      </c>
+      <c r="D118" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>593</v>
+      </c>
+      <c r="C120" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>594</v>
+      </c>
+      <c r="C121" t="s">
+        <v>592</v>
+      </c>
+      <c r="E121" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -4318,8 +4692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4333,7 +4707,7 @@
         <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -4342,7 +4716,7 @@
         <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4360,7 +4734,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4430,84 +4804,84 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C16" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="E16" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C17" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C18" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B19" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C19" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="E19" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C20" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="E20" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B21" t="s">
-        <v>517</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="C22" t="s">
-        <v>533</v>
+        <v>603</v>
       </c>
       <c r="E22" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="C23" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="E23" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -4520,8 +4894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4556,642 +4930,642 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" t="s">
         <v>203</v>
-      </c>
-      <c r="C5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>427</v>
+        <v>599</v>
       </c>
       <c r="C7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>600</v>
       </c>
       <c r="C8" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="E8" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="F8" t="s">
-        <v>546</v>
+        <v>601</v>
       </c>
       <c r="G8" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="H8" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C12" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D13">
         <v>123456</v>
       </c>
       <c r="E13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C14" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E14" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E15" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E16" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C18" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E18" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C19" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E19" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E20" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C21" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E21" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C22" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E22" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C23" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E23" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C24" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E24" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C25" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E25" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C26" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E26" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C27" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C28" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E28" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C29" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E29" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C30" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E30" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C31" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E31" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C32" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E32" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C33" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E33" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C34" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E34" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C35" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E35" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C36" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E36" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C37" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E37" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C38" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E38" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C39" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E39" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C40" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D40" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E40" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C41" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E41" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C42" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D42" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E42" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C44" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D44" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E44" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C45" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D45" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E45" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C46" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D46" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C47" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D47" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C48" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D48" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C50" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="E50" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="E51" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E52" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="E53" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C54" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E54" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C55" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="E55" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C58" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="E58" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C59" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E59" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C60" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D60">
         <v>19.899999999999999</v>
       </c>
       <c r="E60" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C61" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D61">
         <v>0.01</v>
       </c>
       <c r="E61" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C62" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="E62" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/cases/case.xlsx
+++ b/cases/case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="604">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -727,10 +727,6 @@
   </si>
   <si>
     <t>//span[contains(.,'保存到草稿')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斑马(下斑马亚属和细纹斑马亚属动物统称)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2831,8 +2827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3016,7 +3012,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3027,7 +3023,7 @@
         <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3049,7 +3045,7 @@
         <v>68</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3095,10 +3091,10 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3106,10 +3102,10 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3117,10 +3113,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3128,10 +3124,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3139,10 +3135,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3150,10 +3146,10 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -3161,10 +3157,10 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -3172,10 +3168,10 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3183,10 +3179,10 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -3194,10 +3190,10 @@
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -3205,20 +3201,20 @@
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>88</v>
@@ -3226,7 +3222,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>91</v>
@@ -3234,15 +3230,15 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>88</v>
@@ -3250,7 +3246,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>95</v>
@@ -3258,83 +3254,83 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
+        <v>412</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B64" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C66" s="3">
         <v>19.989999999999998</v>
@@ -3342,46 +3338,46 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C69" s="4"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C72" s="3">
         <v>0</v>
@@ -3389,143 +3385,143 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C75" s="4"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
+        <v>484</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
+        <v>494</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
+        <v>511</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
+        <v>538</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
+        <v>540</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>541</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -3539,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120:XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3575,7 +3571,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -3583,7 +3579,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3591,70 +3587,70 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" t="s">
         <v>264</v>
       </c>
-      <c r="E6" t="s">
-        <v>265</v>
-      </c>
       <c r="F6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" t="s">
         <v>260</v>
-      </c>
-      <c r="G6" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" t="s">
         <v>269</v>
       </c>
-      <c r="C7" t="s">
-        <v>270</v>
-      </c>
       <c r="D7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" t="s">
         <v>264</v>
       </c>
-      <c r="E7" t="s">
-        <v>265</v>
-      </c>
       <c r="F7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -3662,7 +3658,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -3670,26 +3666,26 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -3711,7 +3707,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -3719,7 +3715,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -3727,7 +3723,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D16" t="s">
         <v>88</v>
@@ -3735,7 +3731,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -3743,7 +3739,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -3751,7 +3747,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D19" t="s">
         <v>89</v>
@@ -3759,35 +3755,35 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3813,10 +3809,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -3827,7 +3823,7 @@
         <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3840,13 +3836,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="D29" t="s">
-        <v>212</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3910,7 +3906,7 @@
         <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -3923,10 +3919,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -3937,7 +3933,7 @@
         <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -3956,7 +3952,7 @@
         <v>142</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -3975,10 +3971,10 @@
         <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E44" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3989,7 +3985,7 @@
         <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E45" t="s">
         <v>117</v>
@@ -4030,7 +4026,7 @@
         <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -4038,7 +4034,7 @@
         <v>112</v>
       </c>
       <c r="B50" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -4057,7 +4053,7 @@
         <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -4081,7 +4077,7 @@
         <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C55" t="s">
         <v>127</v>
@@ -4092,7 +4088,7 @@
         <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -4111,7 +4107,7 @@
         <v>131</v>
       </c>
       <c r="D58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -4119,7 +4115,7 @@
         <v>133</v>
       </c>
       <c r="C59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -4127,18 +4123,18 @@
         <v>132</v>
       </c>
       <c r="C60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -4168,7 +4164,7 @@
         <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -4176,10 +4172,10 @@
         <v>160</v>
       </c>
       <c r="B65" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C65" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E65" t="s">
         <v>161</v>
@@ -4190,7 +4186,7 @@
         <v>144</v>
       </c>
       <c r="D66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -4198,7 +4194,7 @@
         <v>145</v>
       </c>
       <c r="D67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -4214,7 +4210,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C69" t="s">
         <v>162</v>
@@ -4234,7 +4230,7 @@
         <v>106</v>
       </c>
       <c r="D70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -4272,7 +4268,7 @@
         <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -4299,386 +4295,386 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" t="s">
         <v>177</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
         <v>178</v>
-      </c>
-      <c r="E77" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C78" t="s">
+        <v>179</v>
+      </c>
+      <c r="E78" t="s">
         <v>180</v>
-      </c>
-      <c r="E78" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C79" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" t="s">
         <v>182</v>
-      </c>
-      <c r="E79" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E86" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C87" t="s">
+        <v>235</v>
+      </c>
+      <c r="E87" t="s">
         <v>236</v>
-      </c>
-      <c r="E87" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>508</v>
+      </c>
+      <c r="B93" t="s">
         <v>509</v>
-      </c>
-      <c r="B93" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D94" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C96" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C97" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>375</v>
+      </c>
+      <c r="C99" t="s">
+        <v>377</v>
+      </c>
+      <c r="E99" t="s">
         <v>376</v>
-      </c>
-      <c r="C99" t="s">
-        <v>378</v>
-      </c>
-      <c r="E99" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C100" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D100" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C101" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C102" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C103" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D103" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C104" t="s">
+        <v>547</v>
+      </c>
+      <c r="E104" t="s">
         <v>548</v>
-      </c>
-      <c r="E104" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C105" t="s">
+        <v>549</v>
+      </c>
+      <c r="E105" t="s">
         <v>550</v>
-      </c>
-      <c r="E105" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C106" t="s">
+        <v>587</v>
+      </c>
+      <c r="E106" t="s">
         <v>588</v>
-      </c>
-      <c r="E106" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C107" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E107" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C108" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E108" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C109" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C110" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D113" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>568</v>
+      </c>
+      <c r="C114" t="s">
         <v>569</v>
-      </c>
-      <c r="C114" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C115" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D116" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>581</v>
+      </c>
+      <c r="D117" t="s">
         <v>582</v>
-      </c>
-      <c r="D117" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D118" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C120" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C121" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E121" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -4707,7 +4703,7 @@
         <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -4716,7 +4712,7 @@
         <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4734,7 +4730,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4804,84 +4800,84 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>489</v>
+      </c>
+      <c r="C16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E16" t="s">
         <v>490</v>
-      </c>
-      <c r="C16" t="s">
-        <v>492</v>
-      </c>
-      <c r="E16" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B19" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C19" t="s">
+        <v>517</v>
+      </c>
+      <c r="E19" t="s">
         <v>518</v>
-      </c>
-      <c r="E19" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C23" t="s">
+        <v>523</v>
+      </c>
+      <c r="E23" t="s">
         <v>524</v>
-      </c>
-      <c r="E23" t="s">
-        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -4894,8 +4890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4930,642 +4926,642 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" t="s">
         <v>196</v>
-      </c>
-      <c r="C3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" t="s">
         <v>202</v>
-      </c>
-      <c r="E5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" t="s">
         <v>205</v>
-      </c>
-      <c r="E6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E7" t="s">
         <v>418</v>
-      </c>
-      <c r="E7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>599</v>
+      </c>
+      <c r="C8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E8" t="s">
+        <v>420</v>
+      </c>
+      <c r="F8" t="s">
         <v>600</v>
       </c>
-      <c r="C8" t="s">
-        <v>420</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
+        <v>533</v>
+      </c>
+      <c r="H8" t="s">
         <v>421</v>
-      </c>
-      <c r="F8" t="s">
-        <v>601</v>
-      </c>
-      <c r="G8" t="s">
-        <v>534</v>
-      </c>
-      <c r="H8" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" t="s">
         <v>207</v>
-      </c>
-      <c r="E9" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D13">
         <v>123456</v>
       </c>
       <c r="E13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" t="s">
         <v>277</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>278</v>
-      </c>
-      <c r="E14" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C18" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" t="s">
         <v>285</v>
-      </c>
-      <c r="E18" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" t="s">
         <v>287</v>
-      </c>
-      <c r="E19" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C20" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" t="s">
         <v>289</v>
-      </c>
-      <c r="E20" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C21" t="s">
+        <v>293</v>
+      </c>
+      <c r="E21" t="s">
         <v>294</v>
-      </c>
-      <c r="E21" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E23" t="s">
         <v>291</v>
-      </c>
-      <c r="E23" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C24" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" t="s">
         <v>303</v>
-      </c>
-      <c r="E24" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C25" t="s">
+        <v>304</v>
+      </c>
+      <c r="E25" t="s">
         <v>305</v>
-      </c>
-      <c r="E25" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C26" t="s">
+        <v>306</v>
+      </c>
+      <c r="E26" t="s">
         <v>307</v>
-      </c>
-      <c r="E26" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C28" t="s">
+        <v>309</v>
+      </c>
+      <c r="E28" t="s">
         <v>310</v>
-      </c>
-      <c r="E28" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E31" t="s">
         <v>316</v>
-      </c>
-      <c r="E31" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C34" t="s">
+        <v>321</v>
+      </c>
+      <c r="E34" t="s">
         <v>322</v>
-      </c>
-      <c r="E34" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C35" t="s">
+        <v>346</v>
+      </c>
+      <c r="E35" t="s">
         <v>347</v>
-      </c>
-      <c r="E35" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C36" t="s">
+        <v>357</v>
+      </c>
+      <c r="E36" t="s">
         <v>358</v>
-      </c>
-      <c r="E36" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C37" t="s">
+        <v>325</v>
+      </c>
+      <c r="E37" t="s">
         <v>326</v>
-      </c>
-      <c r="E37" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C38" t="s">
+        <v>327</v>
+      </c>
+      <c r="E38" t="s">
         <v>328</v>
-      </c>
-      <c r="E38" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>329</v>
+      </c>
+      <c r="C39" t="s">
         <v>330</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>331</v>
-      </c>
-      <c r="E39" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D40" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E41" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D42" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>424</v>
+      </c>
+      <c r="C44" t="s">
+        <v>423</v>
+      </c>
+      <c r="D44" t="s">
         <v>425</v>
       </c>
-      <c r="C44" t="s">
-        <v>424</v>
-      </c>
-      <c r="D44" t="s">
-        <v>426</v>
-      </c>
       <c r="E44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>429</v>
+      </c>
+      <c r="C45" t="s">
+        <v>423</v>
+      </c>
+      <c r="D45" t="s">
         <v>430</v>
       </c>
-      <c r="C45" t="s">
-        <v>424</v>
-      </c>
-      <c r="D45" t="s">
-        <v>431</v>
-      </c>
       <c r="E45" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C46" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D46" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D48" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>465</v>
+      </c>
+      <c r="C50" t="s">
+        <v>447</v>
+      </c>
+      <c r="E50" t="s">
         <v>466</v>
-      </c>
-      <c r="C50" t="s">
-        <v>448</v>
-      </c>
-      <c r="E50" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E51" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E52" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E54" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C55" t="s">
+        <v>450</v>
+      </c>
+      <c r="E55" t="s">
         <v>451</v>
-      </c>
-      <c r="E55" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>453</v>
+      </c>
+      <c r="C58" t="s">
         <v>454</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>455</v>
-      </c>
-      <c r="E58" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C59" t="s">
+        <v>456</v>
+      </c>
+      <c r="E59" t="s">
         <v>457</v>
-      </c>
-      <c r="E59" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C60" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D60">
         <v>19.899999999999999</v>
       </c>
       <c r="E60" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C61" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D61">
         <v>0.01</v>
       </c>
       <c r="E61" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C62" t="s">
+        <v>468</v>
+      </c>
+      <c r="E62" t="s">
         <v>469</v>
-      </c>
-      <c r="E62" t="s">
-        <v>470</v>
       </c>
     </row>
   </sheetData>
